--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="13" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="15" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="面向对象多线程" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="916">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3344,11 +3344,356 @@
     <t xml:space="preserve">  XmlWebApplicationContext</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt;context:annotation-config&gt;，spring特殊对待bean的某个注解，用注解指导bean装配，消除spring里配置&lt;property&gt;&lt;constructor-arg&gt;元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;context:component-scan&gt;，代替&lt;context:annotation-config&gt;元素，包括它的工作，还允许自动检测bean定义bean，意味着配置里不使用&lt;bean&gt;元素，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  @Autowired, @Qualifier, @Inject, @Resource, @Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;context:include-filter&gt;, &lt;context:exclude-filter&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  @Component, @Controller, @Repository, @Service, @Configuration, @Bean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript权威指南(第六版)</t>
+  </si>
+  <si>
+    <t>前端开发工程师必须掌握的三种技能：描述网页内容的HTML，描述网页样式的CSS，描述网页行为的JavaScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分输出输出等API由宿主环境提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this是对定义方法的对象的引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入浅出HTML</t>
+  </si>
+  <si>
+    <t>URL(Uniform Resource Locator)是URI(Uniform Resource Identifier)中的一种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL前导斜线表示站点根目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素（开标签，内容，闭标签），属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP权威指南</t>
+  </si>
+  <si>
+    <t>客户端（web浏览器）向服务器发送一条HTTP请求，请求HTTP对象，服务器将对象、类型、长度及其他一些信息放在HTTP响应中发送给客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URI有两种形式，URL和URN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP方法：GET/PUT/DELETE/POST/HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP应用层协议，由TCP/IP传输层协议传输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL没有端口号时，默认端口号为80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过Telnet也可建立TCP/IP连接，发送HTTP请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP代理服务器，位于客户端和服务器之间，可对请求和响应进行过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存是一种特殊代理，将经过代理传送的常用文档复制保存，方便下一个请求同一文档的客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关将HTTP与其他协议如FTP进行转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隧道，通过HTTP连接承载加密的安全套接字层（SSL），这样SSL流量就可通过只允许WEB流量的防火墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在缺少了分号就无法正确解析代码的时候，会填补分号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型分两种，原始类型和对象类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象是属性的集合，每个属性都由名值对构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infinity/NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用整数分而不要使用小数元进行基于货币的运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTF-16格式，有可能两个16位值构成一个字符，JavaScript对字符串的操作方法作用于16位值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两条斜线之间文本构成正则表达式直接量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假值：undefined/null/0/-0/NaN/""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window/Location/Document/Element对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>style/className/事件处理属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web浏览器是简单操作系统，提供很多高级服务（比如XMLHttpRequest）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript最好通过&lt;script&gt;元素的src属性来嵌入HTML文档里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个WEB页面中包含的所有JavaScript代码，共用一个Window/Document对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序执行两阶段：第一阶段，载入文档内容，执行script里的代码；第二阶段，事件驱动，本阶段第一个事件是load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一阶段时间很短，第二阶段会一直继续下去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML解析器遇到script元素时，默认必须先执行脚本，再恢复文档的解析和渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象，事件，处理程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础单线程执行模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery里，事件处理程序的注册是通过bind完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setTimeout/clearTimeout/setInterval/clearInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window和Document对象的location属性都是引用的Location对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iframe元素，多个子窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在HTML中使用的id属性（如果Window对象没有此名字的属性）会成为可被脚本访问的全局变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个标签都是独立浏览上下文，有独立Window对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iframe创建嵌套浏览上下文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗体或窗口间共享函数，函数在定义他的作用域执行，而不是在调用他的作用域执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document,Element,Text是Node的子类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单数据提交到服务器时使用name属性的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id的值必须唯一，name的值不必唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element类可用getElementsByTagName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class属性中有相同标识符的任何元素属于同一组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document的querySelector方法接受包含一个CSS选择器的字符串参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery使用$()同querySelectorAll()等效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element的children列表类似ChildNodes，但只包含Element对象，没有Text和Comment节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node的textContent属性表示纯文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textContext属性将后代Text节点串联在一起，innerText忽略空白，试图保留表格格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form元素以及表单输入元素input/select/button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的输入从表单元素收集，表单将这些输入递交服务器，服务器处理输入并生成一个新的HTML页面显示在客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端程序，表单需要一个提交按钮，客户端编程中，提交不是必须的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端程序基于表单提交动作，客户端程序基于事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置单选或者复选元素的value属性不改变元素的视觉表现，只改变提交表单时发送到Web服务器的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有在解析文档时才能使用write方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本设置window对象的location属性或调用表单对象的submit方法时，都会初始化HTTP请求，浏览器会加载新页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另一种是在没有导致Web浏览器重新加载任何窗口或窗体的内容情况下，Web浏览器与服务器之间的通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP请求：请求方法或动作，URL，请求头，请求主体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP响应：状态码，响应头，响应主体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST方法常用于HTML表单，请求主体中包含额外数据（表单数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET没有请求主体，POST有主体，且必须匹配Content-Type头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readyState，指定HTTP请求的状态，值改变会触发readystatechange事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP同步响应：open的第三个参数为false，则send将阻塞直到请求完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript是单线程，尽量避免同步请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET请求时，需要发送给服务器的表单数据要作为URL（后跟一个问号）的查询部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormData对象的append方法把多部分请求主体添加到请求中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$()，jQuery()方法，第一种传递CSS选择器，第二种传递Element/Document/Window对象，第三种传递HTML文本字符串，第四种传递一个函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getter/setter是同一个方法，如果传入新值，则设置此值，如果没指定值，则返回当前值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr/css方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addClass/removeClass/toggleClass/hasClass方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load方法，异步加载URL内容，插入选中元素中，替换已存在内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同站点的页面无法互相读取对方存储的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web存储：localStorage/sessionStorage，支持大容量数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie，存储少量文本数据，每一次HTTP请求都会把这些数据传输到服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE User Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离线Web应用，将Web应用整体存储在客户端，而不仅仅是数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -4026,7 +4371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4058,10 +4403,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4093,7 +4437,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4269,7 +4612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4331,7 +4674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4547,7 +4890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4654,7 +4997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -4866,7 +5209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4985,7 +5328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -5411,7 +5754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5637,7 +5980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -5918,7 +6261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6178,7 +6521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6239,11 +6582,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6328,15 +6671,365 @@
         <v>5</v>
       </c>
     </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>593</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6406,11 +7099,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D184"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6603,592 +7296,617 @@
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="7" t="s">
+      <c r="A45" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
         <v>628</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="7" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="7" t="s">
         <v>730</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
+    <row r="74" spans="1:1">
+      <c r="A74">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="7" t="s">
+    <row r="76" spans="1:1">
+      <c r="A76" s="7" t="s">
         <v>634</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
         <v>641</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>727</v>
+        <v>711</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
         <v>723</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="7" t="s">
+    <row r="115" spans="1:1">
+      <c r="A115" s="7" t="s">
         <v>643</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="127" spans="1:1">
-      <c r="A127">
+    <row r="128" spans="1:1">
+      <c r="A128">
         <v>25</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143">
+    <row r="144" spans="1:1">
+      <c r="A144">
         <v>334</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
         <v>687</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>690</v>
+        <v>706</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="167" spans="1:1">
-      <c r="A167" s="1" t="s">
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
         <v>778</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="174" spans="1:1">
-      <c r="A174" s="1" t="s">
+    <row r="175" spans="1:1">
+      <c r="A175" s="1" t="s">
         <v>783</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
         <v>793</v>
       </c>
     </row>
@@ -7201,11 +7919,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7492,6 +8210,91 @@
     <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>819</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -7502,7 +8305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7563,7 +8366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7619,7 +8422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -7744,7 +8547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7770,7 +8573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7796,7 +8599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -8832,7 +9635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8847,7 +9650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8873,7 +9676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8929,7 +9732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="15" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="面向对象多线程" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="916">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="966">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3674,19 +3674,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Web存储：localStorage/sessionStorage，支持大容量数据存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cookie，存储少量文本数据，每一次HTTP请求都会把这些数据传输到服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IE User Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离线Web应用，将Web应用整体存储在客户端，而不仅仅是数据</t>
+    <t>localStorage存储的数据永久性，除非Web应用刻意删除，或通过配置浏览器来删除；作用域限定在文档源，文档源通过协议、主机和端口来确定，同源文档共享localStorage数据，不同浏览器不共享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionStorage数据和存储数据的脚本所在最顶层窗口或浏览器标签有效期一样，作用域被限定在窗口中，一个标签下两个iframe是可共享的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Web存储：localStorage/sessionStorage，支持大容量数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  cookie，存储少量文本数据，每一次HTTP请求都会把这些数据传输到服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  离线Web应用，将Web应用整体存储在客户端，而不仅仅是数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localStorage或sessionStorage数据改变时，浏览器会在其他对该数据可见的窗口对象上触发存储事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie作用域和浏览器进程一致而不是单个浏览器窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  IE userData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE userData永不失效，作用域限制在和当前文档同目录的文档中，存储的数据量比cookie大，比localStorage/sessionStorge小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用程序缓存不会随着浏览器清除缓存而被清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web浏览器会忽略多余的换行和回车符，把多个空格缩合为一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title属性用来显示“工具提示”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>style属性尽量不使用，因为把内容和表现混在了一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽量不使用内联的事件处理器：onclick等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏掉闭合括号或分割属性和值的冒号，整条规则甚至整个样式表都可能会失灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较具体的选择符将凌驾于较不具体的选择符之上并取而代之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体性大小：全体选择符，元素选择符，类或伪类选择符，ID选择符，内联的style属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有相同具体性时，后面的声明会盖过前面的声明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部样式表只下载一次，然后由浏览器缓存起来，用于后面的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最靠近内容的样式获胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何文本或行内元素必须嵌套在另一个块级元素之中，不能直接包含在body元素中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无序列表ul，有序列表ol，只能包含li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩写abbr，首字母缩略词acronym，后者是一个可发音的词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div创建一个逻辑部分，将相关内容和元素组织在一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位图，像素的颜色和位置信息累加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢量图形，存储一组数学指令，计算机根据其指示在屏幕上绘图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table/tr/td</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单，网页上供用户输入信息的区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交表单时，所有控件的值都以名值对的形式，作为数据集的一部分发送给表单处理器，因此，每个控件都必须有一个name属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form的内容必须包含在各自的块级容器中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action属性，为表单处理器的URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get，将表单所有名值对组成的查询字符串添加到表单处理器的URL的末尾。向服务器请求临时静态数据，URL包括查询字符串可能会被重用。数据从服务器传到客户机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post，数据集直接发给表单处理器应用程序，不是URL查询字符串。把数据发到服务器保存，或者安全个人隐私等原因。数据从客户机发到服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行内元素，几个元素可并排出现在一行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一组单选按钮必须具有相同的name属性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input type="submit"控件提交整个表单数据集，image按钮有相似功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button元素类似于type为submit/reset/button/image的input元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lable元素的可选属性for设置为他所说明的控件的唯一性id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签条与控件之间正确建立了关联，可以通过点击签条把焦点移到他所说明的控件上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件的视觉性样式是操作系统所固有的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在行内元素style中通过@import语句导入外部样式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把样式应用到一个元素时，元素所包含的大多数内容也将继承这个样式，但有些样式不能继承，例如background-image属性就需要明确地为各个元素设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z-index值最大的，显示在最上层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>media规则用于为屏幕显示和打印文档指定不同字体、显示方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在各种主流浏览器中测试文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noscript标签。可把JavaScript代码放在HTML注释中，让那些不支持JavaScript的老浏览器忽略这段代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个等号表示在不进行数据类型转换的前提下是否相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript并不要求调用函数时提供的参数个数必须与函数定义中的参数个数一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addEventListener/removeEventListener对应微软的attchEvent/detachEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好在客户端/浏览器和服务器上处理表单时都对用户输入的信息进行验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达式对象，test，数据验证手段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面模板，实体模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大多数主流浏览器中提供相同的体验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6583,10 +6783,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A91"/>
+  <dimension ref="A1:A98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A99" sqref="A99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6998,27 +7198,62 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91">
-        <v>593</v>
+      <c r="A91" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -7920,10 +8155,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B120"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8233,74 +8468,287 @@
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65">
-        <v>27</v>
+      <c r="A65" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>842</v>
+      <c r="A67" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>843</v>
+        <v>926</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>844</v>
+        <v>927</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>845</v>
+        <v>928</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>846</v>
+        <v>929</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>847</v>
+        <v>930</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>848</v>
+        <v>931</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>849</v>
+        <v>932</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>850</v>
+        <v>933</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>851</v>
+        <v>934</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
+    <row r="120" spans="1:1">
+      <c r="A120">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A95" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="15" activeTab="20"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="984">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3889,11 +3889,83 @@
     <t>大多数主流浏览器中提供相同的体验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>URL参数，由;将其与URL其余部分以及各名值对分隔开来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询字符串，由？开始，由&amp;分隔名值对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片段，由#开始带个字符串，浏览器从服务器获得整个资源后，会根据片段显示感兴趣的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端应用程序在向其他应用程序发送任意URL之前，最好把所以不安全或受限字符都进行转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态码：100-199信息提示，200-299成功，300-399资源被移走了，400-499客户端请求出错，500-599服务器错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/HEAD是安全方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展方法，对接收到的方法宽容，对发出的方法严格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多客户端错误都是由浏览器来处理的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器处理URL时，将服务器IP和端口从URL中分离，建立到Web服务器的TCP连接，通过这条连接发送一条请求报文，读取响应，关闭连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行连接和持久连接（HTTP1.0 keep-alive连接，HTTP1.1 persistent connection默认情况下激活）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭连接的输出信道安全，关闭输入信道危险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web服务器：单线程，多进程及多线程，复用IO，复用的多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能让URL退到文档根目录之外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理连接的是两个或多个使用相同协议的应用程序，网关连接的则是两个或多个使用不同协议的端点，扮演协议转换器角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将客户端流量发给代理：修改客户端浏览器代理配置，拦截网络的交换设备及路由设备，放在Web服务器之前假扮服务器的名字和IP，Web服务器重定向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存命中、未命中、再验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将响应中Date首部的值与当前时间进行比较，如果响应中的比较早，客户端可以认为这是一条缓存的响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web浏览器中Refresh或Reload，强制对浏览器或代理缓存中可能过期的内容进行刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -4571,7 +4643,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4603,9 +4675,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4637,6 +4710,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4812,7 +4886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4874,7 +4948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5090,7 +5164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5197,7 +5271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -5409,7 +5483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5528,7 +5602,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -5954,7 +6028,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6180,7 +6254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -6461,7 +6535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6721,7 +6795,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6782,7 +6856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -7264,7 +7338,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7334,7 +7408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D185"/>
   <sheetViews>
     <sheetView topLeftCell="A172" workbookViewId="0">
@@ -8154,11 +8228,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8738,8 +8812,98 @@
       </c>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120">
-        <v>26</v>
+      <c r="A120" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -8753,7 +8917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8814,7 +8978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8870,7 +9034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -8995,7 +9159,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9021,7 +9185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9047,7 +9211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -10083,7 +10247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10098,7 +10262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10124,7 +10288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10180,7 +10344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="985">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3959,6 +3959,10 @@
   </si>
   <si>
     <t>Web浏览器中Refresh或Reload，强制对浏览器或代理缓存中可能过期的内容进行刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用程序服务器网关，将HTTP客户端连接到服务器端的应用程序上去，电子商店购物，天气预报，股票报价等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8229,10 +8233,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B138"/>
+  <dimension ref="A1:B139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8902,8 +8906,13 @@
       </c>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138">
-        <v>195</v>
+      <c r="A138" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139">
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="15" activeTab="20"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="985">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="989">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3965,11 +3965,27 @@
     <t>应用程序服务器网关，将HTTP客户端连接到服务器端的应用程序上去，电子商店购物，天气预报，股票报价等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>通用网关接口CGI，为每条CGI请求引发一个新进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速CGI，作为持久守护进程运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOAP是向HTTP报文中添加XML信息的标准方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web隧道，在HTTP连接中嵌入非HTTP流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -4647,7 +4663,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4679,10 +4695,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4714,7 +4729,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4890,7 +4904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4952,7 +4966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5168,7 +5182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5275,7 +5289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -5487,7 +5501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5606,7 +5620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -6032,7 +6046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6258,7 +6272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -6539,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6799,7 +6813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6860,7 +6874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -7342,7 +7356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7412,7 +7426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D185"/>
   <sheetViews>
     <sheetView topLeftCell="A172" workbookViewId="0">
@@ -8232,11 +8246,11 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8911,8 +8925,28 @@
       </c>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139">
-        <v>210</v>
+      <c r="A139" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -8926,7 +8960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8987,7 +9021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9043,7 +9077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -9168,7 +9202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9194,7 +9228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9220,7 +9254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -10256,7 +10290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10271,7 +10305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10297,7 +10331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10353,7 +10387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,34 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="15" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="面向对象多线程" sheetId="1" r:id="rId1"/>
     <sheet name="网络编程" sheetId="2" r:id="rId2"/>
-    <sheet name="c#" sheetId="21" r:id="rId3"/>
-    <sheet name="c" sheetId="14" r:id="rId4"/>
-    <sheet name="c++primer3chn" sheetId="6" r:id="rId5"/>
-    <sheet name="perl&amp;shell&amp;python" sheetId="7" r:id="rId6"/>
-    <sheet name="stl" sheetId="8" r:id="rId7"/>
-    <sheet name="xml" sheetId="9" r:id="rId8"/>
-    <sheet name="uml&amp;数据库建模" sheetId="10" r:id="rId9"/>
-    <sheet name="android4" sheetId="11" r:id="rId10"/>
-    <sheet name="知识点" sheetId="3" r:id="rId11"/>
-    <sheet name="data structure" sheetId="4" r:id="rId12"/>
-    <sheet name="design patern" sheetId="5" r:id="rId13"/>
-    <sheet name="java-sunxin" sheetId="12" r:id="rId14"/>
-    <sheet name="Java完全参考手册" sheetId="13" r:id="rId15"/>
-    <sheet name="J2EE参考大全" sheetId="16" r:id="rId16"/>
-    <sheet name="hsp-j2ee" sheetId="17" r:id="rId17"/>
-    <sheet name="java面试" sheetId="18" r:id="rId18"/>
-    <sheet name="javascript" sheetId="20" r:id="rId19"/>
-    <sheet name="java" sheetId="22" r:id="rId20"/>
-    <sheet name="web" sheetId="23" r:id="rId21"/>
-    <sheet name="db" sheetId="24" r:id="rId22"/>
+    <sheet name="c" sheetId="14" r:id="rId3"/>
+    <sheet name="c++primer3chn" sheetId="6" r:id="rId4"/>
+    <sheet name="perl&amp;shell&amp;python" sheetId="7" r:id="rId5"/>
+    <sheet name="stl" sheetId="8" r:id="rId6"/>
+    <sheet name="xml" sheetId="9" r:id="rId7"/>
+    <sheet name="uml&amp;数据库建模" sheetId="10" r:id="rId8"/>
+    <sheet name="android4" sheetId="11" r:id="rId9"/>
+    <sheet name="知识点" sheetId="3" r:id="rId10"/>
+    <sheet name="data structure" sheetId="4" r:id="rId11"/>
+    <sheet name="design patern" sheetId="5" r:id="rId12"/>
+    <sheet name="java-sunxin" sheetId="12" r:id="rId13"/>
+    <sheet name="Java完全参考手册" sheetId="13" r:id="rId14"/>
+    <sheet name="J2EE参考大全" sheetId="16" r:id="rId15"/>
+    <sheet name="hsp-j2ee" sheetId="17" r:id="rId16"/>
+    <sheet name="java面试" sheetId="18" r:id="rId17"/>
+    <sheet name="javascript" sheetId="20" r:id="rId18"/>
+    <sheet name="java" sheetId="22" r:id="rId19"/>
+    <sheet name="web" sheetId="23" r:id="rId20"/>
+    <sheet name="db" sheetId="24" r:id="rId21"/>
+    <sheet name="c#" sheetId="21" r:id="rId22"/>
     <sheet name="vs2010MFC" sheetId="19" r:id="rId23"/>
     <sheet name="WebRTC" sheetId="15" r:id="rId24"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="1030">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3981,11 +3981,174 @@
     <t>Web隧道，在HTTP连接中嵌入非HTTP流量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C# WinForm 实践开发教程</t>
+  </si>
+  <si>
+    <t>Program.cs，决定哪个WinForm窗体第一个被执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  InitializeComponent方法，界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Form.Designer.cs，系统自动生成，界面设计规则，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dispose方法，释放系统资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Form.cs，窗体代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET Framework包含多种编程语言，并且彼此之间可以通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c#入门经典第五版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码由VS编译成通用中间语言CIL，Just-In-Time (JIT)编译器把CIL编译为专用于OS和目标机器结构的本机代码，这样OS才能执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共语言运行库CLR，运行可执行文件，管理内存/安全性/跨语言调试，垃圾回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WinForm，WPF（更高级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>///特殊注释，可用于创建文档说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用#region和#endregion折叠代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbyte/byte/short/unshort/int/uint/long/ulong/float/double/decimal/char/bool/string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝分布在多行上的字符串字面值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制台输出文本，每个占位符用每个变量的值来替代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐字指定字符串字面值，@加双引号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一元运算符+，对结果没有影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用!/&amp;/|/^来运算布尔值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用&amp;&amp;/||比用&amp;/|性能好，因为后者需要计算两个操作数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二的补位系统，-x=~x+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行完一个case块后，再执行第二个case语句是非法的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default语句不一定要放在比较操作列表的最后，还可以把他放在case语句一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用goto语句从外部进入循环是非法的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool没有隐式转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何类型A，只要其取值范围完全包含在类型B的取值范围内，就可以隐式转换成B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checked/unchecked，表达式溢出检查上下文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显式转换总是进行溢出检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举的基本类型可以是byte/sbyte/short/ushort/int/uint/long/ulong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得枚举的字符串值，ToString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构和枚举一样，是在代码主体之外声明的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组必须在访问之前初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以指定数组大小，再用new初始化元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用变量定义大小，改变量必须是常量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach不存在访问非法元素的危险，但对数组内容进行只读访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多维数组用多个逗号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组的数组，锯齿数组，每行有不同的元素个数，foreach必须循环每个子数组和数组本身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了获得可写的char数组，要使用ToCharArray函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl键使命令列表变透明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数的名称和参数共同定义了函数的签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数数组，最后一个参数，params关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -4663,7 +4826,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4695,9 +4858,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4729,6 +4893,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4904,7 +5069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4966,223 +5131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>531</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5288,8 +5237,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -5500,8 +5449,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5619,8 +5568,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -6045,8 +5994,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6271,8 +6220,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -6552,8 +6501,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6812,8 +6761,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6873,8 +6822,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -7355,8 +7304,828 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D185"/>
+  <sheetViews>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>577</v>
+      </c>
+      <c r="D11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>580</v>
+      </c>
+      <c r="D15" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>540</v>
+      </c>
+      <c r="B18" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B21" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="7" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="7" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>793</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7426,830 +8195,10 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D185"/>
-  <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>577</v>
-      </c>
-      <c r="D11" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>580</v>
-      </c>
-      <c r="D15" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="C16" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>540</v>
-      </c>
-      <c r="B18" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>595</v>
-      </c>
-      <c r="B21" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="7" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="7" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="7" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="7" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="7" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="7" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>793</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+    <sheetView topLeftCell="A122" workbookViewId="0">
       <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
@@ -8959,8 +8908,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9020,12 +8969,254 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="7" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9077,7 +9268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -9202,33 +9393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9253,8 +9418,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -10289,8 +10454,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10304,8 +10469,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10330,8 +10495,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10386,8 +10551,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10425,4 +10590,220 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="13" activeTab="21"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="1035">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4144,11 +4144,31 @@
     <t>参数数组，最后一个参数，params关键字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>C_#4.0中文视频教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用参数，ref，函数定义以及调用都要指定必须使用初始化过的变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出参数，out，可把未赋值的变量用做out参数，变量之前被赋的值会在函数执行时丢失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有给变量赋值后，这个变量才占一个内存空间，如果在循环中赋值，实际是局部值，循环外就超出作用域了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好在声明和初始化所有变量后，再在代码块中使用它们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -4826,7 +4846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4858,10 +4878,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4893,7 +4912,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5069,7 +5087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5131,7 +5149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5238,7 +5256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -5450,7 +5468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5569,7 +5587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -5995,7 +6013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6221,7 +6239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -6502,7 +6520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6762,7 +6780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6823,7 +6841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -7305,7 +7323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D185"/>
   <sheetViews>
     <sheetView topLeftCell="A172" workbookViewId="0">
@@ -8125,7 +8143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8195,7 +8213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B143"/>
   <sheetViews>
     <sheetView topLeftCell="A122" workbookViewId="0">
@@ -8909,7 +8927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8970,238 +8988,263 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="7" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="3" spans="1:1">
+      <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
         <v>989</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
+    <row r="11" spans="1:1">
+      <c r="A11">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
         <v>996</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
-        <v>136</v>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -9212,7 +9255,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9268,7 +9311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -9393,7 +9436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9419,7 +9462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -10455,7 +10498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10470,7 +10513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10496,7 +10539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10552,7 +10595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10593,7 +10636,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -9244,7 +9244,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="13" activeTab="21"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="面向对象多线程" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="1056">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4164,12 +4164,96 @@
     <t>最好在声明和初始化所有变量后，再在代码块中使用它们</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>委托，delegate，两种初始化方法，一种new，一种直接赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Console.WriteLine()/Debug.WriteLine()/Trace.WriteLine()/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Console.Write()/Debug.Write()/Trace.Write()/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Console.WriteLineIf()/Debug.WriteLineIf()/Trace.WriteLineIf()/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Console.WriteIf()/Debug.WriteIf()/Trace.WriteIf()/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪点输入要输出的字符串或者变量值，跟踪点由VS处理，并不在应用程序里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertion语句中断，Debug.Assert/Trace.Assert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在异常未处理时，异常信息才会显示出来，应用程序才会中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch或finally可以二选一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在case块里可以用throw而不用break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有throw的话，先执行finally块，再执行上级匹配的catch块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new调用构造函数，不带参数的是默认构造函数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态构造函数只能有一个</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>using varialble，会在代码块结尾自动删除变量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>值类型总是包含一个值，引用类型可以说null，表示他们不包含值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构类型和类的重要区别是，结构类型是值类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话cookie，退出浏览器被删除</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>持久cookie，存在硬盘上，计算机重启仍然存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有设置Expires或Max-Age，就是会话cookie</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器贴在用户上的贴纸</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器set cookie，浏览器将cookie存到cookie数据库中，用户访问站点时，浏览器会将相应服务器的cookie，在请求首部发出去</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4232,6 +4316,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4255,7 +4346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4283,6 +4374,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8214,10 +8306,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B143"/>
+  <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="F147" sqref="F147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8911,9 +9003,34 @@
         <v>988</v>
       </c>
     </row>
-    <row r="143" spans="1:1">
-      <c r="A143">
-        <v>222</v>
+    <row r="144" spans="1:1">
+      <c r="A144" s="9" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="9" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="9" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="9" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="9" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="9">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -8989,10 +9106,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:A82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9243,8 +9360,88 @@
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66">
-        <v>149</v>
+      <c r="A66" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="9" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="9" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="9" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="9" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="9" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="9">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="13" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="13" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="面向对象多线程" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="1065">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2668,10 +2668,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">   execute返回字符串，StrutsPrepareAndExecuteFilter跳转到指定视图，输出属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Struts2的Ajax支持建立在Dojo和DWR基础之上，对这两个框架进一步封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4247,6 +4243,46 @@
   <si>
     <t>服务器set cookie，浏览器将cookie存到cookie数据库中，用户访问站点时，浏览器会将相应服务器的cookie，在请求首部发出去</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVC是所有面向对象程序设计语言都应遵守的规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB应用是一种请求/响应模式下的应用，如果用户不发出请求，视图无法主动更新自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插拔式拦截器，插件机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   execute返回字符串，将处理结果存入stack context中，StrutsPrepareAndExecuteFilter根据返回字符串跳转到指定视图，并读取stack context中信息输出属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2标签库替代JSTL标签库&lt;s:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.xml配置核心filter，StrutsPrepareAndExecuteFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struts.xml，定义action，指定实现类，定义action处理结果与视图资源之间的映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struts.properties，配置全局属性，键值对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现Action接口，可用常量SUCCESS等代替字符串success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionContext.getContext().getSession返回map，设置map的user值，可返回给jsp(view)，jsp用$(sessionScope.user}获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4892,6 +4928,544 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5734050" y="19897725"/>
+          <a:ext cx="733425" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>浏览器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772276" y="19288125"/>
+          <a:ext cx="752474" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>servlet</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810376" y="20402551"/>
+          <a:ext cx="838199" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>JSP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8115300" y="19821524"/>
+          <a:ext cx="733425" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>JavaBean</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9410700" y="19888200"/>
+          <a:ext cx="733425" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>数据库</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6467475" y="19669125"/>
+          <a:ext cx="304800" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>638177</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="1"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="6467476" y="20173950"/>
+          <a:ext cx="342901" cy="428626"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="20" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7524750" y="19511963"/>
+          <a:ext cx="590550" cy="561974"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290513</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="19" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6855619" y="20028693"/>
+          <a:ext cx="666751" cy="80963"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>42863</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="21" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="20073937"/>
+          <a:ext cx="561975" cy="28576"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5529,22 +6103,22 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -5664,12 +6238,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -6693,22 +7267,22 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -6768,27 +7342,27 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -6808,17 +7382,17 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="8" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -6913,17 +7487,17 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -6974,47 +7548,47 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -7024,62 +7598,62 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -7089,172 +7663,172 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -7264,142 +7838,142 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -7416,10 +7990,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A175" sqref="A175"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7573,67 +8147,67 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="7" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -7688,67 +8262,67 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -7803,102 +8377,102 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -7953,12 +8527,12 @@
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>659</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -7967,263 +8541,308 @@
       </c>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128">
-        <v>25</v>
+      <c r="A128" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>660</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>661</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>662</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>663</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>664</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>665</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>666</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>669</v>
+      <c r="A137">
+        <v>27</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144">
-        <v>334</v>
+      <c r="A144" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>682</v>
+      <c r="A153">
+        <v>334</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>687</v>
+        <v>677</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>706</v>
+        <v>680</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>694</v>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="1" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>781</v>
+      <c r="A168" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>779</v>
+        <v>688</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>780</v>
+        <v>705</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>782</v>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>784</v>
+      <c r="A175" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>787</v>
+      <c r="A177" s="1" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>792</v>
+      <c r="A184" s="1" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>793</v>
+        <v>783</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -8308,15 +8927,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="F147" sqref="F147"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8350,22 +8969,22 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8375,87 +8994,87 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -8465,112 +9084,112 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -8580,452 +9199,452 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="9" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="9" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="9" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="149" spans="1:1">
@@ -9116,7 +9735,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -9131,32 +9750,32 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -9166,277 +9785,277 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="9" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="9" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="9" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="9" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="82" spans="1:1">

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="13" activeTab="18"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="1065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="1066">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4284,11 +4284,15 @@
     <t>ActionContext.getContext().getSession返回map，设置map的user值，可返回给jsp(view)，jsp用$(sessionScope.user}获取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Action中成员属性，不一定用于封装用户请求参数，也可能封装了Action需要传递到页面的值，这些值被封装在ValueStack对象中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -5466,6 +5470,246 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="矩形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="23650575"/>
+          <a:ext cx="904875" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>setBooks()</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171824" y="23602950"/>
+          <a:ext cx="3305175" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>(ValueStack)request.getAttribute("struts.valueStack")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>vs.findValue("books")</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>61913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1400175" y="23893463"/>
+          <a:ext cx="1771649" cy="33337"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="23688675"/>
+          <a:ext cx="857250" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ValueStack</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5512,7 +5756,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5544,9 +5788,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5578,6 +5823,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5753,7 +5999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5815,7 +6061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5922,7 +6168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6134,7 +6380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6253,7 +6499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -6679,7 +6925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6905,7 +7151,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -7186,7 +7432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -7446,7 +7692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7507,7 +7753,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -7989,11 +8235,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D194"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A138" sqref="A138"/>
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8586,262 +8832,267 @@
       </c>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>662</v>
+      <c r="A137" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>665</v>
+      <c r="A143">
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153">
-        <v>334</v>
+      <c r="A153" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>679</v>
+      <c r="A160">
+        <v>334</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>686</v>
+        <v>679</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="1" t="s">
-        <v>777</v>
+      <c r="A177" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>780</v>
+        <v>705</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>778</v>
+        <v>689</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>779</v>
+        <v>690</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>781</v>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>785</v>
+      <c r="A191" s="1" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
         <v>792</v>
       </c>
     </row>
@@ -8854,7 +9105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8924,7 +9175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView topLeftCell="A113" workbookViewId="0">
@@ -9663,7 +9914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9724,7 +9975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
@@ -10071,7 +10322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10127,7 +10378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -10252,7 +10503,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10278,7 +10529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -11314,7 +11565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11329,7 +11580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11355,7 +11606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11411,7 +11662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11452,7 +11703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1080">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2756,10 +2756,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A组件（依赖组件）调用B组件（被依赖组件）的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">  A创建B，再调用B方法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2773,10 +2769,6 @@
   </si>
   <si>
     <t>Spring在Java EE中功能：IoC/AOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>struts-default.xml-&gt;struts-plugin.xml-&gt;struts.xml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4286,6 +4278,69 @@
   </si>
   <si>
     <t>Action中成员属性，不一定用于封装用户请求参数，也可能封装了Action需要传递到页面的值，这些值被封装在ValueStack对象中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2和Spring整合的关键，是让Struts2的Action可以访问Spring容器中的业务逻辑组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.springframework.core/beans/context提供Spring IoC容器支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器不仅负责管理各组件的创建，而且负责管理组件之间的依赖关系，包括Action/Service/Dao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2插件为JAR文件，包含一个struts-plugin.xml文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2应用加载顺序：struts-default.xml(struts2-core.jar)-&gt;struts-plugin.xml(plugin JAR)-&gt;struts.xml(应用相关配置)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2插件提供了拦截器/Bean的实现类/相应配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合Spring：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Spring.jar/commons-logging.jar/struts2-spring-plugin.jar/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Spring容器初始化-ContextLoaderListener/contextConfigLocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A组件（依赖组件）调用B组件（被依赖组件）的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器调用业务逻辑组件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  服务器定位模式-业务逻辑组件在某个容器中运行，并对外提供服务-传统EJB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  工厂模式-Spring工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2核心控制器拦截用户请求，转发给对应Action，这个过程是固定的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    依赖注入-struts.xml中配置伪Action，applicationContext中配置伪Action对应的实际Spring bean以及bean引用的业务逻辑service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    自动装配-Spring自动管理bean之间依赖关系，无需用ref显式指定依赖。struts.xml仍然配置真实Action，增加struts.objectFactory.spring.autoWire，applicationContext配置service bean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6349,22 +6404,22 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -6484,12 +6539,12 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -7513,22 +7568,22 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -7588,27 +7643,27 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -7628,17 +7683,17 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="8" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="8" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -7733,17 +7788,17 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -7794,47 +7849,47 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -7844,62 +7899,62 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -7909,172 +7964,172 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -8084,142 +8139,142 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -8236,10 +8291,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="L197" sqref="L197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8393,67 +8448,67 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="7" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -8508,67 +8563,67 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -8623,102 +8678,102 @@
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="115" spans="1:1">
@@ -8778,7 +8833,7 @@
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="127" spans="1:1">
@@ -8788,52 +8843,52 @@
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -8923,7 +8978,7 @@
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="164" spans="1:1">
@@ -8958,142 +9013,212 @@
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>681</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>686</v>
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>688</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>705</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>689</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>690</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>694</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>693</v>
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="1" t="s">
-        <v>777</v>
+      <c r="A184" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>780</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>778</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>779</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>781</v>
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="1" t="s">
-        <v>782</v>
+      <c r="A191" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>783</v>
+        <v>703</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>786</v>
+        <v>687</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>787</v>
+        <v>688</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>784</v>
+        <v>692</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>789</v>
+        <v>691</v>
       </c>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" t="s">
-        <v>785</v>
+      <c r="A198" s="1" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>792</v>
+        <v>777</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>790</v>
       </c>
     </row>
   </sheetData>
@@ -9186,7 +9311,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9220,22 +9345,22 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9245,87 +9370,87 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -9335,112 +9460,112 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -9450,452 +9575,452 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="9" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="9" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="9" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="9" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="9" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="149" spans="1:1">
@@ -9986,7 +10111,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -10001,32 +10126,32 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -10036,277 +10161,277 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="9" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="9" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="9" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="9" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="9" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="82" spans="1:1">

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="13" activeTab="18"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1090">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4343,11 +4343,51 @@
     <t xml:space="preserve">    自动装配-Spring自动管理bean之间依赖关系，无需用ref显式指定依赖。struts.xml仍然配置真实Action，增加struts.objectFactory.spring.autoWire，applicationContext配置service bean</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>页面中输出一个key值，在不同语言环境下对应不同字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>native2ascii messageResource.properties messageResource_zh_CN.properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp国际化：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;s:text name="messageKey"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;s:property value="getText('messageKey')"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  key属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action国际化：getText("messageKey")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ActionName-validation.xml校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据校验方法：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ActionSupport类，提供数据校验功能，重写validate方法，addFieldError，如果有校验错误，将转到input属性对应的视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -5811,7 +5851,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5843,10 +5883,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5878,7 +5917,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6054,7 +6092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6116,7 +6154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6223,7 +6261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6435,7 +6473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6554,7 +6592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -6980,7 +7018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7206,7 +7244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -7487,7 +7525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -7747,7 +7785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7808,7 +7846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -8290,11 +8328,11 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D215"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="L197" sqref="L197"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8892,332 +8930,377 @@
       </c>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143">
-        <v>29</v>
+      <c r="A143" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>659</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>660</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>661</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>662</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>663</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>664</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
-        <v>667</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160">
-        <v>334</v>
+      <c r="A160" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>680</v>
+      <c r="A168">
+        <v>334</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>1073</v>
+        <v>674</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>1068</v>
+        <v>678</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>1064</v>
+        <v>679</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>1065</v>
+        <v>680</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>1067</v>
+        <v>681</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>1069</v>
+        <v>682</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>1070</v>
+        <v>683</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>1071</v>
+        <v>684</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>1074</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>1075</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>1076</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>1079</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>1077</v>
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>686</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>703</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>687</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>688</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>692</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" s="1" t="s">
-        <v>775</v>
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>778</v>
+        <v>686</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>776</v>
+        <v>703</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>777</v>
+        <v>687</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" s="1" t="s">
-        <v>780</v>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" t="s">
-        <v>781</v>
+      <c r="A206" s="1" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" t="s">
-        <v>788</v>
+      <c r="A213" s="1" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
         <v>790</v>
       </c>
     </row>
@@ -9230,7 +9313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9300,7 +9383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView topLeftCell="A113" workbookViewId="0">
@@ -10039,7 +10122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10100,7 +10183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
@@ -10447,7 +10530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10503,7 +10586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -10628,7 +10711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10654,7 +10737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -11690,7 +11773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11705,7 +11788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11731,7 +11814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11787,7 +11870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11828,7 +11911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="13" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="面向对象多线程" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="1097">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1020,15 +1020,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Red Hat Linux Enterprise 5, Unix/Linux Scripting,python/perl/shell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">MS Visual Studio </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Android ,iOS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2225,15 +2217,2132 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>network programming models and methods, System V Inter-Process Communication (IPC), TCP/IP protocols，SNMP，VoIP,SOAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XML(DOM, SAX, JAXB)/XSLT, MIB ,Web Services</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oracle, Sybase， SQL, PL/SQL, stored procedure,MySQL</t>
+    <t>SVN and Git，ClearCase,CVS,JITA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库直连还是池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容器，tomcat weblogic区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接写sql语句还是封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架源码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crm多产品，多对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者突击：Java Web主流框架整合开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java web软件架构：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一层架构： browser-jsp-data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两层架构： browser-jsp-javabean-data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp(v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servlet（c)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javabean(m)-data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三层架构： browser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  控制层 struts,spring,webwork,jsf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务层(dao)-数据持久层(data persistence)-data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多层架构： browser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-32-37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struts1+webwork=struts2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩顺平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法混乱，标记乱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xhtml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml语法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新标记，（table布局，div布局）（内容类，handling类）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新api（实时二维绘图，定时媒体播放，离线存储数据库，通信/网络，微数据，地理信息/移动应用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2个注释，3个脚本元素，3个指令元素，8个动作指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request,response,pageContext,session,application,out,config,page,exception对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>servlet:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于线程，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统初始化，服务拦截，过滤，过滤器，监听器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  持久层 hiernate（自动生成sql）,ibatis（自己编写sql）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求和展现分开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp之间跳转，用绝对路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring 3.0就这么简单</t>
+  </si>
+  <si>
+    <t>以反转控制ioc和面向切面编程aop为内核，提供展现层spring mvc、持久层spring jdbc以及业务层事务管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节流(InputStream,OutputStream)，字符流(Reader,Writer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeanFactory，IoC容器，spring框架基础设施，面向Spring本身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplicationContext，应用上下文，Spring容器，面向开发者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aop作为oop的补充</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将无法通过继承进行抽象的重复性代码提取出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax 由 HTML、JavaScript™ 技术、DHTML 和 DOM 组成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 Web 应用程序中使用像桌面应用程序中常见的动态用户界面和漂亮的控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将笨拙的 Web 界面转化成能迅速响应的 Ajax 应用程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ioc(di)，通过容器来控制业务对象之间的依赖关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大话设计模式</t>
+  </si>
+  <si>
+    <t>简单工厂模式，工厂类产生各个不同算法类，各算法类实现自己的运算函数，多态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个客户端连接都会在服务器进程中拥有一个线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读锁共享，写锁排他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务日志，存储引擎在修改表数据时只需要修改其内存拷贝，再把该修改行为记录到持久在硬盘上的事务日志中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开源，插件收费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用程序性能剖析，为sql语句计时，随机采样</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢查询日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML 用于建立 Web 表单并确定应用程序其他部分使用的字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript 代码是运行 Ajax 应用程序的核心代码，帮助改进与服务器应用程序的通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHTML 或 Dynamic HTML，用于动态更新表单。我们将使用 div、span 和其他动态 HTML 元素来标记 HTML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档对象模型 DOM 用于（通过 JavaScript 代码）处理 HTML 结构和（某些情况下）服务器返回的 XML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax - Asynchronous JavaScript and XML（以及 DHTML 等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把 JavaScript 技术和 XMLHttpRequest 对象放在 Web 表单和服务器之间，JavaScript 代码捕获表单数据并向服务器发送请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理模式，真实类和代理类都实现共同接口，代理类去实现时，实际调用真实类的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂方法模式，把简单工厂内部逻辑判断转移到客户端进行，改工厂类变成修改客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动缓存，被动缓存（存储/返回数据memcached）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层缓存（本地缓存hash，共享内存，分布式memcached，硬盘缓存）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精通 Hibernate：Java 对象持久化技术详解(第2版)</t>
+  </si>
+  <si>
+    <t>业务实体在内存中为对象，在数据库中为关系数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orm-object relation mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate，对JDBC做轻量级封装，开放源代码的持久化中间件，提供ORM映射，数据查询，数据缓存功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件分层，每层由一组相关类或组件构成，层间自上而下依赖，每层对上层公开API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件分析阶段，概念模型（实体概念、属性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表的主键不要有业务含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL DDL（data definition language），创建数据库schema</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件设计阶段，域模型（对象-实体/过程/事件，关系-关联/依赖/聚集/一般化），数据模型（关系）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts 2.x权威指南(第3版)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP（需转化成servlet执行）对应ASP（VB script，可直接执行）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP.NET对应JAVA EE，分层思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVC（被观察者-数据体，观察者-视图）类似观察者模式（观察者与被观察者对等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放-封闭原则，修改原有代码说明设计不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖倒转原则，让程序都依赖抽象，而不是互相依赖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察者模式（发布-订阅模式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    一个对象的改变需要同时改变其他对象，解除耦合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    subject类（抽象类或者接口）-增删观察者/通知，observer类（接口）-得到主题通知更新自己，ConcreteSubject类，ConcreteOberver类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型变化时，当用户请求浏览页面时，控制器才调用模型数据来更新JSP页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action是普通java对象，实现Action接口，包含execute方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理流程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   StrutsPrepareAndExecuteFilter调用合适Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器：StrutsPrepareAndExecuteFilter，业务控制器Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   浏览器发请求，带Action名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   拦截器自动对请求应用通用功能，将用户请求参数赋值给Action对应的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2的Ajax支持建立在Dojo和DWR基础之上，对这两个框架进一步封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  输入校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  异步提交表单请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  pub-sub事件模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ajax标签</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步发送用户请求，更新页面部分数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax工作过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prototype/jQuery/DWR/ExtJS等Ajax框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  JavaScript创建XMLHttpRequest对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  对象向服务器发请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  对象的onreadystatechanged绑定事件监听处理函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  对象获取服务器响应数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  JavaScript通过DOM动态更新HTML页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stream类型的Result让Action生产普通Ajax响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   回调Action的execute方法，获取用户参数，执行数据库操作，set session属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2与Spring整合方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  将Spring容器中对应业务逻辑组件注入Action实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring是轻量级Java EE框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  AOP容器将安全、事务、日志等进行集中式处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ORM/DAO与第三方持久层框架良好整合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制反转，创建被调用者的工作不再由调用者来完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依赖注入，创建被调用者的工作由Spring容器完成，然后注入调用者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  A创建B，再调用B方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  A通过B工厂获取B实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  系统把B注入A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring在Java EE中功能：IoC/AOP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  将Action实例交给Spring容器来生成、管理，struts.xml中配置伪Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hibernate比iBatis（仅停留在SQL Mapping阶段，允许开发人员直接编写SQL语句）更具有面向对象的特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可以在Struts2 Action中访问Hibernate的Configuration/SessionFactory/Session等持久层API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间层组件分为：业务逻辑层，DAO层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象工厂模式，提供一个创建一系列相关或相互依赖对象的接口，而无需指定他们具体的类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例模式，pulic GetInstance，private construction，保证一个类仅有一个实例，并提供全局访问点，双重锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Spring框架作为中间层框架，向上整合Struts2框架，向下整合Hibernate框架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务逻辑组件工厂、DAO组件工厂来管理系统的业务逻辑组件、DAO组件，Hibernate的持久化访问都封装在DAO组件里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java.sql提供JDBC API，DriverManager/Connection/Statement/PreparedStatement/ResultSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持久化模式：ORM/主动域/JDO/CMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心接口：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Session，持久化管理器，提供增删改查操作，非线程安全，轻量级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Transaction，对底层事务接口封装，包括JDBC API/JTA/CORBA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Query，包装HQL语句，面向对象，引用类名及属性名，而不是表名字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Criteria，封装基于字符串查询，更面向对象，动态查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Interceptor/Event/EventListener</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Type，数据类型映射，把域对象映射为关系数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Hibernate步骤：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表映射类，表的行映射对象，表的列映射对象的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain对象是对应表名，类名首字母大写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象=javabean=POJO，有主键，有属性，有set/get，有无参构造函数用于反射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象关系映射文件命名：对象.hbm.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>generator，指定主键生成策略hilo/native/increment/sequence/uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Configuration，读取配置文件，根启动Hibernate，获得对象-关系映射文件中元数据，动态配置Hibernate属性，创建SessionFactory实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  applicationContext.xml设置bean及对应类，设置属性/值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  应用程序加载applicationContext.xml，获得bean，传入相应属性值，调用相应类的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  网页指定action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  struts.xml调用action，传输网页字段值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  action class继承ActionSupport,override execute方法，获得传输值进行相关操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  struts.xml根据execute返回值跳转jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  创建持久化类，属性对应数据库一个表的字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  创建对象-关系映射文件，一个表一个，类对应表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  通过Hibernate API编写访问数据库的代码，调用相关表类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  创建Hibernate配置文件，hibernate.cfg.xml/hibernate.properties，配置数据库连接，管理对象关系文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  dialect，可配置方言，MySQL/Sybase/Oracle，用于生产SQL查询语句或生产策略</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当Java对象在不同进程节点间传输或持久化HttpSession中对象，持久化类需实现Serializable接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个XML文件都有独自的DTD文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应在表述层或业务逻辑层对数据验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  SessionFactory，一个实例对应一个数据库，创建Session实例，线程安全，重量级，缓存，内置缓存，外置缓存（二级缓存，存放数据库数据拷贝）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器与服务器通信而无需刷新页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XHTML/CSS(cascading style sheet)标准化呈现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax技术精讲视频教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  TXT，responseText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  JSON(JavaScript Object Notation，键值对，可为函数)，将responseText（json字符串）转为json对象（eval函数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring事务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tomcat连接数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hibernate表联合，缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java数据结构和算法</t>
+  </si>
+  <si>
+    <t>bc2=bc1;java中地址拷贝，指向同一对象；c++中拷贝对象的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankAccount bc1;java中创建了引用；c++中创建了对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个等号，java中判断是否指向同一对象（equals判断数据是否相等）；c++判断是否值相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery对Ajax进行封装，第一层$.ajax()，第二层load(),$.get(),$.post()，第三层$.getScript(),$.getJSON()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>args赋值为Date（JSON格式），取消缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现Ajax的方法为XMLHttpRequest使用步骤：open，send，onreadystatechange处理函数（服务器触发，每次readyState改变都会触发readystatechange事件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回/传输数据格式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  XML，得到responseXML，创建节点，把节点加入到detail，笨重但通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  HTML,结果赋值到innerHTML属性就可以显示，可以只更新一小块，传输数据不方便，需要拼装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load()用来加载html比较方便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.get(),$.post(),$.getJSON()使用回调函数，解析data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础语法，DOM，BOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>html里嵌入js代码，从文件外引入，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>script之间共享变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量建议先定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组，长度无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>substring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数在head里，调用语句在body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数无需写返回值类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件处理：onFocus/onClick/onLoad/onSubmit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新标记 header/hgroup/article/address/time/section/aside/footer，专注于内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>section是容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aside在相应article旁边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruby显示超字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML5入门视频教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video/audio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canvas，用JavaScript来画图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储数据（刷新页面，数据仍然存在）：localStorage(请求时使用，存储时间无限)，sessionStorage(关闭浏览器后数据删除)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML+5+从入门到精通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input类型：email/url/number/range/date/search/color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的表单元素：datalist(用input的list属性引用datalist的id)/keygen/output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新属性：autocomplete/autofocus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML 5 不基于
+SGML，因此不需要对 DTD 进行引用，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form: 表单用于向服务器（指定的 URL）传递用户数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;label&gt; 标签定义控件的标注。如果您在 label 元素内点击文本，就会触发此控件。就是说，当用户选择该标
+签时，浏览器就会自动将焦点转到和标签相关的表单控件上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;meta&gt; 元素可提供有关页面的元信息（meta-information），比如针对搜索引擎和更新频度的描述和关键词</t>
+  </si>
+  <si>
+    <t>css(cascading style sheets)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>样式优先级：浏览器缺省设置，外部样式表，内部样式表（位于header标签内部），内联样式（HTML元素内部）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语法：选择器，属性和值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>css经典教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多重样式，属性值从更具体的样式表中被继承过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myBatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usersMapper.xml，表的sql语句mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>users.java，表类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conf.xml，配置连接，注册表Mapper文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.java，根据conf.xml建立InputStream，SqlSessionFactory，SqlSession，根据usersMapper.xml里的sql语句进行数据库操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring MVC + myBatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>applicationContext.xml</t>
+  </si>
+  <si>
+    <t>springmvc-servlet.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  指定spring配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  拦截器配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  配置数据库连接属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  配置bean属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  启用注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  对视图解析规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.xml设置默认页面为index.html，AccessController.java拦截，经过注解，转到welcome.jsp，提交后进入send action，被拦截</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择器分组、继承，类选择器，ID选择器（只能出现一次），派生选择器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freemarker快速入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计者专注于表示——创建HTML文件、图片、Web页面的其它可
+视化方面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序员创建系统，生成设计页面要显示的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在HTML（或其它要输出的文本）中加入一些特定指令，FreeMarker会在输出页面给最终用户时，用适当的数据替代这些代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML中加入了一些由${…}包围的特定代码，这些特定代码是FreeMarker的指令，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包含FreeMarker的指令的文件就称为模板（Template）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{}中的数据来自于数据模型（data model）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据模型由程序员编程来创建，向模板提供变化的信息，这些信息来自于数据库、文件，甚至于在程序中直接生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>典型的数据模型是树型结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreeMarker模板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  类似于目录的变量称为hashes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  类似于文件的变量称为scalars</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  另外一种变量是sequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ${…}：称为interpolations，FreeMarker会在输出时用实际值进行替代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  FTL标记（FreeMarker模板语言标记）：类似于HTML标记，为了与HTML标记区分，用#开始（有些以@开始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  注释：包含在&lt;#--和--&gt;（而不是&lt;!--和--&gt;）之间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  集合可以看作只能由&lt;#list …&gt;指令使用的受限sequences</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  方法：通过传递的参数进行计算，以新对象返回结果（程序员已经将方法变量放到数据模型中）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  用户自定义FTL标记：宏和变换器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTL标记不能位于另一个FTL标记内部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有两种类型的指令：预定义指令和用户定义指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户定义指令要使用@替换#，如&lt;@mydirective&gt;...&lt;/@mydirective&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当请求一个Login表单时，那么这就是一次请求，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果在请求/login.htm时的请求是get请求，那么Spring MVC会认为这是进入且第一次页面请求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果已经显示此页面，然后提交form表单，那么这是一次post请求,那么Spring MVC会认为这不是第一次页面请求，则不会在重新返回显示页面的时候再执行onBindOnNewForm()函数了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summercool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPRING 实战（第3版）</t>
+  </si>
+  <si>
+    <t>构造器注入，没有自行创建任务，而是在构造时把任务（接口类型）作为构造器参数传入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AOP，使用各种功能层去包裹核心业务层，将安全、事务和日志与核心业务分离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml里声明切面，定义pointcut，前置通知，后置通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将bean加载到bean工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ClassPathXmlApplicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  FileSystemXmlApplicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  XmlWebApplicationContext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;context:annotation-config&gt;，spring特殊对待bean的某个注解，用注解指导bean装配，消除spring里配置&lt;property&gt;&lt;constructor-arg&gt;元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;context:component-scan&gt;，代替&lt;context:annotation-config&gt;元素，包括它的工作，还允许自动检测bean定义bean，意味着配置里不使用&lt;bean&gt;元素，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  @Autowired, @Qualifier, @Inject, @Resource, @Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;context:include-filter&gt;, &lt;context:exclude-filter&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  @Component, @Controller, @Repository, @Service, @Configuration, @Bean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript权威指南(第六版)</t>
+  </si>
+  <si>
+    <t>前端开发工程师必须掌握的三种技能：描述网页内容的HTML，描述网页样式的CSS，描述网页行为的JavaScript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分输出输出等API由宿主环境提供</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this是对定义方法的对象的引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入浅出HTML</t>
+  </si>
+  <si>
+    <t>URL(Uniform Resource Locator)是URI(Uniform Resource Identifier)中的一种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL前导斜线表示站点根目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素（开标签，内容，闭标签），属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP权威指南</t>
+  </si>
+  <si>
+    <t>客户端（web浏览器）向服务器发送一条HTTP请求，请求HTTP对象，服务器将对象、类型、长度及其他一些信息放在HTTP响应中发送给客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URI有两种形式，URL和URN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP方法：GET/PUT/DELETE/POST/HEAD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP应用层协议，由TCP/IP传输层协议传输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL没有端口号时，默认端口号为80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过Telnet也可建立TCP/IP连接，发送HTTP请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP代理服务器，位于客户端和服务器之间，可对请求和响应进行过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存是一种特殊代理，将经过代理传送的常用文档复制保存，方便下一个请求同一文档的客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网关将HTTP与其他协议如FTP进行转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隧道，通过HTTP连接承载加密的安全套接字层（SSL），这样SSL流量就可通过只允许WEB流量的防火墙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在缺少了分号就无法正确解析代码的时候，会填补分号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型分两种，原始类型和对象类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象是属性的集合，每个属性都由名值对构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infinity/NaN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用整数分而不要使用小数元进行基于货币的运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTF-16格式，有可能两个16位值构成一个字符，JavaScript对字符串的操作方法作用于16位值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两条斜线之间文本构成正则表达式直接量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假值：undefined/null/0/-0/NaN/""</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window/Location/Document/Element对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>style/className/事件处理属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web浏览器是简单操作系统，提供很多高级服务（比如XMLHttpRequest）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript最好通过&lt;script&gt;元素的src属性来嵌入HTML文档里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个WEB页面中包含的所有JavaScript代码，共用一个Window/Document对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序执行两阶段：第一阶段，载入文档内容，执行script里的代码；第二阶段，事件驱动，本阶段第一个事件是load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一阶段时间很短，第二阶段会一直继续下去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML解析器遇到script元素时，默认必须先执行脚本，再恢复文档的解析和渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象，事件，处理程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础单线程执行模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery里，事件处理程序的注册是通过bind完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setTimeout/clearTimeout/setInterval/clearInterval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Window和Document对象的location属性都是引用的Location对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iframe元素，多个子窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在HTML中使用的id属性（如果Window对象没有此名字的属性）会成为可被脚本访问的全局变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个标签都是独立浏览上下文，有独立Window对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iframe创建嵌套浏览上下文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗体或窗口间共享函数，函数在定义他的作用域执行，而不是在调用他的作用域执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document,Element,Text是Node的子类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单数据提交到服务器时使用name属性的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id的值必须唯一，name的值不必唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element类可用getElementsByTagName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class属性中有相同标识符的任何元素属于同一组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Document的querySelector方法接受包含一个CSS选择器的字符串参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jQuery使用$()同querySelectorAll()等效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element的children列表类似ChildNodes，但只包含Element对象，没有Text和Comment节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node的textContent属性表示纯文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textContext属性将后代Text节点串联在一起，innerText忽略空白，试图保留表格格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form元素以及表单输入元素input/select/button</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户的输入从表单元素收集，表单将这些输入递交服务器，服务器处理输入并生成一个新的HTML页面显示在客户端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端程序，表单需要一个提交按钮，客户端编程中，提交不是必须的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端程序基于表单提交动作，客户端程序基于事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置单选或者复选元素的value属性不改变元素的视觉表现，只改变提交表单时发送到Web服务器的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有在解析文档时才能使用write方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚本设置window对象的location属性或调用表单对象的submit方法时，都会初始化HTTP请求，浏览器会加载新页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另一种是在没有导致Web浏览器重新加载任何窗口或窗体的内容情况下，Web浏览器与服务器之间的通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP请求：请求方法或动作，URL，请求头，请求主体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP响应：状态码，响应头，响应主体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST方法常用于HTML表单，请求主体中包含额外数据（表单数据）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET没有请求主体，POST有主体，且必须匹配Content-Type头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readyState，指定HTTP请求的状态，值改变会触发readystatechange事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP同步响应：open的第三个参数为false，则send将阻塞直到请求完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript是单线程，尽量避免同步请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET请求时，需要发送给服务器的表单数据要作为URL（后跟一个问号）的查询部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormData对象的append方法把多部分请求主体添加到请求中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$()，jQuery()方法，第一种传递CSS选择器，第二种传递Element/Document/Window对象，第三种传递HTML文本字符串，第四种传递一个函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getter/setter是同一个方法，如果传入新值，则设置此值，如果没指定值，则返回当前值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr/css方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addClass/removeClass/toggleClass/hasClass方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>load方法，异步加载URL内容，插入选中元素中，替换已存在内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同站点的页面无法互相读取对方存储的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localStorage存储的数据永久性，除非Web应用刻意删除，或通过配置浏览器来删除；作用域限定在文档源，文档源通过协议、主机和端口来确定，同源文档共享localStorage数据，不同浏览器不共享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sessionStorage数据和存储数据的脚本所在最顶层窗口或浏览器标签有效期一样，作用域被限定在窗口中，一个标签下两个iframe是可共享的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储方式：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Web存储：localStorage/sessionStorage，支持大容量数据存储</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  cookie，存储少量文本数据，每一次HTTP请求都会把这些数据传输到服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  离线Web应用，将Web应用整体存储在客户端，而不仅仅是数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localStorage或sessionStorage数据改变时，浏览器会在其他对该数据可见的窗口对象上触发存储事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cookie作用域和浏览器进程一致而不是单个浏览器窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  IE userData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IE userData永不失效，作用域限制在和当前文档同目录的文档中，存储的数据量比cookie大，比localStorage/sessionStorge小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用程序缓存不会随着浏览器清除缓存而被清除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web浏览器会忽略多余的换行和回车符，把多个空格缩合为一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title属性用来显示“工具提示”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>style属性尽量不使用，因为把内容和表现混在了一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽量不使用内联的事件处理器：onclick等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏掉闭合括号或分割属性和值的冒号，整条规则甚至整个样式表都可能会失灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较具体的选择符将凌驾于较不具体的选择符之上并取而代之</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体性大小：全体选择符，元素选择符，类或伪类选择符，ID选择符，内联的style属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有相同具体性时，后面的声明会盖过前面的声明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部样式表只下载一次，然后由浏览器缓存起来，用于后面的页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最靠近内容的样式获胜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何文本或行内元素必须嵌套在另一个块级元素之中，不能直接包含在body元素中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无序列表ul，有序列表ol，只能包含li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩写abbr，首字母缩略词acronym，后者是一个可发音的词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div创建一个逻辑部分，将相关内容和元素组织在一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位图，像素的颜色和位置信息累加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矢量图形，存储一组数学指令，计算机根据其指示在屏幕上绘图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>table/tr/td</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表单，网页上供用户输入信息的区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交表单时，所有控件的值都以名值对的形式，作为数据集的一部分发送给表单处理器，因此，每个控件都必须有一个name属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>form的内容必须包含在各自的块级容器中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action属性，为表单处理器的URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get，将表单所有名值对组成的查询字符串添加到表单处理器的URL的末尾。向服务器请求临时静态数据，URL包括查询字符串可能会被重用。数据从服务器传到客户机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post，数据集直接发给表单处理器应用程序，不是URL查询字符串。把数据发到服务器保存，或者安全个人隐私等原因。数据从客户机发到服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行内元素，几个元素可并排出现在一行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一组单选按钮必须具有相同的name属性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input type="submit"控件提交整个表单数据集，image按钮有相似功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>button元素类似于type为submit/reset/button/image的input元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lable元素的可选属性for设置为他所说明的控件的唯一性id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签条与控件之间正确建立了关联，可以通过点击签条把焦点移到他所说明的控件上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件的视觉性样式是操作系统所固有的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以在行内元素style中通过@import语句导入外部样式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把样式应用到一个元素时，元素所包含的大多数内容也将继承这个样式，但有些样式不能继承，例如background-image属性就需要明确地为各个元素设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>z-index值最大的，显示在最上层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>media规则用于为屏幕显示和打印文档指定不同字体、显示方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在各种主流浏览器中测试文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noscript标签。可把JavaScript代码放在HTML注释中，让那些不支持JavaScript的老浏览器忽略这段代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个等号表示在不进行数据类型转换的前提下是否相等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaScript并不要求调用函数时提供的参数个数必须与函数定义中的参数个数一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addEventListener/removeEventListener对应微软的attchEvent/detachEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好在客户端/浏览器和服务器上处理表单时都对用户输入的信息进行验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正则表达式对象，test，数据验证手段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面模板，实体模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大多数主流浏览器中提供相同的体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL参数，由;将其与URL其余部分以及各名值对分隔开来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询字符串，由？开始，由&amp;分隔名值对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片段，由#开始带个字符串，浏览器从服务器获得整个资源后，会根据片段显示感兴趣的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端应用程序在向其他应用程序发送任意URL之前，最好把所以不安全或受限字符都进行转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态码：100-199信息提示，200-299成功，300-399资源被移走了，400-499客户端请求出错，500-599服务器错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET/HEAD是安全方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展方法，对接收到的方法宽容，对发出的方法严格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多客户端错误都是由浏览器来处理的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器处理URL时，将服务器IP和端口从URL中分离，建立到Web服务器的TCP连接，通过这条连接发送一条请求报文，读取响应，关闭连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并行连接和持久连接（HTTP1.0 keep-alive连接，HTTP1.1 persistent connection默认情况下激活）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭连接的输出信道安全，关闭输入信道危险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web服务器：单线程，多进程及多线程，复用IO，复用的多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能让URL退到文档根目录之外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理连接的是两个或多个使用相同协议的应用程序，网关连接的则是两个或多个使用不同协议的端点，扮演协议转换器角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将客户端流量发给代理：修改客户端浏览器代理配置，拦截网络的交换设备及路由设备，放在Web服务器之前假扮服务器的名字和IP，Web服务器重定向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓存命中、未命中、再验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将响应中Date首部的值与当前时间进行比较，如果响应中的比较早，客户端可以认为这是一条缓存的响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web浏览器中Refresh或Reload，强制对浏览器或代理缓存中可能过期的内容进行刷新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用程序服务器网关，将HTTP客户端连接到服务器端的应用程序上去，电子商店购物，天气预报，股票报价等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用网关接口CGI，为每条CGI请求引发一个新进程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速CGI，作为持久守护进程运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOAP是向HTTP报文中添加XML信息的标准方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web隧道，在HTTP连接中嵌入非HTTP流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C# WinForm 实践开发教程</t>
+  </si>
+  <si>
+    <t>Program.cs，决定哪个WinForm窗体第一个被执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  InitializeComponent方法，界面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Form.Designer.cs，系统自动生成，界面设计规则，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Dispose方法，释放系统资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Form.cs，窗体代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.NET Framework包含多种编程语言，并且彼此之间可以通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c#入门经典第五版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码由VS编译成通用中间语言CIL，Just-In-Time (JIT)编译器把CIL编译为专用于OS和目标机器结构的本机代码，这样OS才能执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共语言运行库CLR，运行可执行文件，管理内存/安全性/跨语言调试，垃圾回收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WinForm，WPF（更高级）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>///特殊注释，可用于创建文档说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用#region和#endregion折叠代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sbyte/byte/short/unshort/int/uint/long/ulong/float/double/decimal/char/bool/string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拒绝分布在多行上的字符串字面值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制台输出文本，每个占位符用每个变量的值来替代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐字指定字符串字面值，@加双引号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一元运算符+，对结果没有影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以用!/&amp;/|/^来运算布尔值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用&amp;&amp;/||比用&amp;/|性能好，因为后者需要计算两个操作数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二的补位系统，-x=~x+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行完一个case块后，再执行第二个case语句是非法的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default语句不一定要放在比较操作列表的最后，还可以把他放在case语句一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用goto语句从外部进入循环是非法的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool没有隐式转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何类型A，只要其取值范围完全包含在类型B的取值范围内，就可以隐式转换成B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checked/unchecked，表达式溢出检查上下文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显式转换总是进行溢出检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举的基本类型可以是byte/sbyte/short/ushort/int/uint/long/ulong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得枚举的字符串值，ToString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构和枚举一样，是在代码主体之外声明的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组必须在访问之前初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以指定数组大小，再用new初始化元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果用变量定义大小，改变量必须是常量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreach不存在访问非法元素的危险，但对数组内容进行只读访问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多维数组用多个逗号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组的数组，锯齿数组，每行有不同的元素个数，foreach必须循环每个子数组和数组本身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了获得可写的char数组，要使用ToCharArray函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctrl键使命令列表变透明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数的名称和参数共同定义了函数的签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数数组，最后一个参数，params关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C_#4.0中文视频教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用参数，ref，函数定义以及调用都要指定必须使用初始化过的变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出参数，out，可把未赋值的变量用做out参数，变量之前被赋的值会在函数执行时丢失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有给变量赋值后，这个变量才占一个内存空间，如果在循环中赋值，实际是局部值，循环外就超出作用域了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好在声明和初始化所有变量后，再在代码块中使用它们</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托，delegate，两种初始化方法，一种new，一种直接赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Console.WriteLine()/Debug.WriteLine()/Trace.WriteLine()/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Console.Write()/Debug.Write()/Trace.Write()/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Console.WriteLineIf()/Debug.WriteLineIf()/Trace.WriteLineIf()/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Console.WriteIf()/Debug.WriteIf()/Trace.WriteIf()/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪点输入要输出的字符串或者变量值，跟踪点由VS处理，并不在应用程序里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assertion语句中断，Debug.Assert/Trace.Assert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在异常未处理时，异常信息才会显示出来，应用程序才会中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>catch或finally可以二选一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在case块里可以用throw而不用break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有throw的话，先执行finally块，再执行上级匹配的catch块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new调用构造函数，不带参数的是默认构造函数</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态构造函数只能有一个</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>using varialble，会在代码块结尾自动删除变量</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>值类型总是包含一个值，引用类型可以说null，表示他们不包含值</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构类型和类的重要区别是，结构类型是值类型</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话cookie，退出浏览器被删除</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>持久cookie，存在硬盘上，计算机重启仍然存在</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没有设置Expires或Max-Age，就是会话cookie</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器贴在用户上的贴纸</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器set cookie，浏览器将cookie存到cookie数据库中，用户访问站点时，浏览器会将相应服务器的cookie，在请求首部发出去</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVC是所有面向对象程序设计语言都应遵守的规范</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WEB应用是一种请求/响应模式下的应用，如果用户不发出请求，视图无法主动更新自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插拔式拦截器，插件机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   execute返回字符串，将处理结果存入stack context中，StrutsPrepareAndExecuteFilter根据返回字符串跳转到指定视图，并读取stack context中信息输出属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2标签库替代JSTL标签库&lt;s:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web.xml配置核心filter，StrutsPrepareAndExecuteFilter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struts.xml，定义action，指定实现类，定义action处理结果与视图资源之间的映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>struts.properties，配置全局属性，键值对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现Action接口，可用常量SUCCESS等代替字符串success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActionContext.getContext().getSession返回map，设置map的user值，可返回给jsp(view)，jsp用$(sessionScope.user}获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action中成员属性，不一定用于封装用户请求参数，也可能封装了Action需要传递到页面的值，这些值被封装在ValueStack对象中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2和Spring整合的关键，是让Struts2的Action可以访问Spring容器中的业务逻辑组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org.springframework.core/beans/context提供Spring IoC容器支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring容器不仅负责管理各组件的创建，而且负责管理组件之间的依赖关系，包括Action/Service/Dao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2插件为JAR文件，包含一个struts-plugin.xml文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2应用加载顺序：struts-default.xml(struts2-core.jar)-&gt;struts-plugin.xml(plugin JAR)-&gt;struts.xml(应用相关配置)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2插件提供了拦截器/Bean的实现类/相应配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合Spring：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Spring.jar/commons-logging.jar/struts2-spring-plugin.jar/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  Spring容器初始化-ContextLoaderListener/contextConfigLocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A组件（依赖组件）调用B组件（被依赖组件）的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器调用业务逻辑组件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  服务器定位模式-业务逻辑组件在某个容器中运行，并对外提供服务-传统EJB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  工厂模式-Spring工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Struts2核心控制器拦截用户请求，转发给对应Action，这个过程是固定的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    依赖注入-struts.xml中配置伪Action，applicationContext中配置伪Action对应的实际Spring bean以及bean引用的业务逻辑service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    自动装配-Spring自动管理bean之间依赖关系，无需用ref显式指定依赖。struts.xml仍然配置真实Action，增加struts.objectFactory.spring.autoWire，applicationContext配置service bean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面中输出一个key值，在不同语言环境下对应不同字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>native2ascii messageResource.properties messageResource_zh_CN.properties</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp国际化：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;s:text name="messageKey"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;s:property value="getText('messageKey')"/&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  key属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action国际化：getText("messageKey")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ActionName-validation.xml校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据校验方法：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ActionSupport类，提供数据校验功能，重写validate方法，addFieldError，如果有校验错误，将转到input属性对应的视图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASP.NET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">javascript libraries (Angular.js, Node.js, Backbone.js, etc) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS Objective-C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android java,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Hat Linux Enterprise 5, Unix/Linux Scripting,python/perl/shell,FreeBSD kernels/drivers/stack </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>System V Inter-Process Communication (IPC),Scheduling, Memory management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>network programming models and methods,  TCP/IP protocols，SNMP，VoIP,SOAP,HTTP and SMTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON,XML(DOM, SAX, JAXB)/XSLT, MIB ,Web Services</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2271,7 +4380,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>EJB, JSF，Servlet, JSP, Struts and Tiles，Spring, Hibernate，</t>
+      <t>EJB, JSF，Servlet, JSP, Struts and Tiles，Spring/MVC, Hibernate，</t>
     </r>
     <r>
       <rPr>
@@ -2287,2107 +4396,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SVN and Git，ClearCase,CVS,JITA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tomcat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库直连还是池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容器，tomcat weblogic区别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直接写sql语句还是封装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>框架源码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crm多产品，多对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发者突击：Java Web主流框架整合开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java web软件架构：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一层架构： browser-jsp-data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两层架构： browser-jsp-javabean-data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp(v)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>servlet（c)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>javabean(m)-data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三层架构： browser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  控制层 struts,spring,webwork,jsf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务层(dao)-数据持久层(data persistence)-data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多层架构： browser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-32-37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>struts1+webwork=struts2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马士兵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韩顺平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>html4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语法混乱，标记乱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xhtml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xml语法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>html5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新标记，（table布局，div布局）（内容类，handling类）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新api（实时二维绘图，定时媒体播放，离线存储数据库，通信/网络，微数据，地理信息/移动应用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2个注释，3个脚本元素，3个指令元素，8个动作指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request,response,pageContext,session,application,out,config,page,exception对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>servlet:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于线程，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统初始化，服务拦截，过滤，过滤器，监听器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  持久层 hiernate（自动生成sql）,ibatis（自己编写sql）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MySQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求和展现分开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp之间跳转，用绝对路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring 3.0就这么简单</t>
-  </si>
-  <si>
-    <t>以反转控制ioc和面向切面编程aop为内核，提供展现层spring mvc、持久层spring jdbc以及业务层事务管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节流(InputStream,OutputStream)，字符流(Reader,Writer)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeanFactory，IoC容器，spring框架基础设施，面向Spring本身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ApplicationContext，应用上下文，Spring容器，面向开发者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aop作为oop的补充</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将无法通过继承进行抽象的重复性代码提取出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ajax 由 HTML、JavaScript™ 技术、DHTML 和 DOM 组成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在 Web 应用程序中使用像桌面应用程序中常见的动态用户界面和漂亮的控件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将笨拙的 Web 界面转化成能迅速响应的 Ajax 应用程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ioc(di)，通过容器来控制业务对象之间的依赖关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大话设计模式</t>
-  </si>
-  <si>
-    <t>简单工厂模式，工厂类产生各个不同算法类，各算法类实现自己的运算函数，多态。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个客户端连接都会在服务器进程中拥有一个线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>读锁共享，写锁排他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事务日志，存储引擎在修改表数据时只需要修改其内存拷贝，再把该修改行为记录到持久在硬盘上的事务日志中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开源，插件收费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用程序性能剖析，为sql语句计时，随机采样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慢查询日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML 用于建立 Web 表单并确定应用程序其他部分使用的字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaScript 代码是运行 Ajax 应用程序的核心代码，帮助改进与服务器应用程序的通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DHTML 或 Dynamic HTML，用于动态更新表单。我们将使用 div、span 和其他动态 HTML 元素来标记 HTML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档对象模型 DOM 用于（通过 JavaScript 代码）处理 HTML 结构和（某些情况下）服务器返回的 XML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ajax - Asynchronous JavaScript and XML（以及 DHTML 等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把 JavaScript 技术和 XMLHttpRequest 对象放在 Web 表单和服务器之间，JavaScript 代码捕获表单数据并向服务器发送请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理模式，真实类和代理类都实现共同接口，代理类去实现时，实际调用真实类的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工厂方法模式，把简单工厂内部逻辑判断转移到客户端进行，改工厂类变成修改客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动缓存，被动缓存（存储/返回数据memcached）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用层缓存（本地缓存hash，共享内存，分布式memcached，硬盘缓存）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精通 Hibernate：Java 对象持久化技术详解(第2版)</t>
-  </si>
-  <si>
-    <t>业务实体在内存中为对象，在数据库中为关系数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orm-object relation mapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hibernate，对JDBC做轻量级封装，开放源代码的持久化中间件，提供ORM映射，数据查询，数据缓存功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件分层，每层由一组相关类或组件构成，层间自上而下依赖，每层对上层公开API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件分析阶段，概念模型（实体概念、属性）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表的主键不要有业务含义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL DDL（data definition language），创建数据库schema</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件设计阶段，域模型（对象-实体/过程/事件，关系-关联/依赖/聚集/一般化），数据模型（关系）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Struts 2.x权威指南(第3版)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSP（需转化成servlet执行）对应ASP（VB script，可直接执行）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ASP.NET对应JAVA EE，分层思想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MVC（被观察者-数据体，观察者-视图）类似观察者模式（观察者与被观察者对等）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开放-封闭原则，修改原有代码说明设计不好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖倒转原则，让程序都依赖抽象，而不是互相依赖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>观察者模式（发布-订阅模式）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    一个对象的改变需要同时改变其他对象，解除耦合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    subject类（抽象类或者接口）-增删观察者/通知，observer类（接口）-得到主题通知更新自己，ConcreteSubject类，ConcreteOberver类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型变化时，当用户请求浏览页面时，控制器才调用模型数据来更新JSP页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action是普通java对象，实现Action接口，包含execute方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>处理流程：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   StrutsPrepareAndExecuteFilter调用合适Action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制器：StrutsPrepareAndExecuteFilter，业务控制器Action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   浏览器发请求，带Action名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   拦截器自动对请求应用通用功能，将用户请求参数赋值给Action对应的属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Struts2的Ajax支持建立在Dojo和DWR基础之上，对这两个框架进一步封装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  输入校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  异步提交表单请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  pub-sub事件模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  Ajax标签</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异步发送用户请求，更新页面部分数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ajax工作过程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prototype/jQuery/DWR/ExtJS等Ajax框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  JavaScript创建XMLHttpRequest对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  对象向服务器发请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  对象的onreadystatechanged绑定事件监听处理函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  对象获取服务器响应数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  JavaScript通过DOM动态更新HTML页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stream类型的Result让Action生产普通Ajax响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   回调Action的execute方法，获取用户参数，执行数据库操作，set session属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Struts2与Spring整合方式：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  将Spring容器中对应业务逻辑组件注入Action实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring是轻量级Java EE框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  AOP容器将安全、事务、日志等进行集中式处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ORM/DAO与第三方持久层框架良好整合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制反转，创建被调用者的工作不再由调用者来完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依赖注入，创建被调用者的工作由Spring容器完成，然后注入调用者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  A创建B，再调用B方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  A通过B工厂获取B实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  系统把B注入A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring在Java EE中功能：IoC/AOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  将Action实例交给Spring容器来生成、管理，struts.xml中配置伪Action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hibernate比iBatis（仅停留在SQL Mapping阶段，允许开发人员直接编写SQL语句）更具有面向对象的特征</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可以在Struts2 Action中访问Hibernate的Configuration/SessionFactory/Session等持久层API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中间层组件分为：业务逻辑层，DAO层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽象工厂模式，提供一个创建一系列相关或相互依赖对象的接口，而无需指定他们具体的类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单例模式，pulic GetInstance，private construction，保证一个类仅有一个实例，并提供全局访问点，双重锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用Spring框架作为中间层框架，向上整合Struts2框架，向下整合Hibernate框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务逻辑组件工厂、DAO组件工厂来管理系统的业务逻辑组件、DAO组件，Hibernate的持久化访问都封装在DAO组件里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java.sql提供JDBC API，DriverManager/Connection/Statement/PreparedStatement/ResultSet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持久化模式：ORM/主动域/JDO/CMP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>核心接口：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  Session，持久化管理器，提供增删改查操作，非线程安全，轻量级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  Transaction，对底层事务接口封装，包括JDBC API/JTA/CORBA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  Query，包装HQL语句，面向对象，引用类名及属性名，而不是表名字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  Criteria，封装基于字符串查询，更面向对象，动态查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  Interceptor/Event/EventListener</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  Type，数据类型映射，把域对象映射为关系数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用Hibernate步骤：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表映射类，表的行映射对象，表的列映射对象的属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>domain对象是对应表名，类名首字母大写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象=javabean=POJO，有主键，有属性，有set/get，有无参构造函数用于反射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象关系映射文件命名：对象.hbm.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>generator，指定主键生成策略hilo/native/increment/sequence/uuid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  Configuration，读取配置文件，根启动Hibernate，获得对象-关系映射文件中元数据，动态配置Hibernate属性，创建SessionFactory实例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  applicationContext.xml设置bean及对应类，设置属性/值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  应用程序加载applicationContext.xml，获得bean，传入相应属性值，调用相应类的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  网页指定action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  struts.xml调用action，传输网页字段值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  action class继承ActionSupport,override execute方法，获得传输值进行相关操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  struts.xml根据execute返回值跳转jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  创建持久化类，属性对应数据库一个表的字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  创建对象-关系映射文件，一个表一个，类对应表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  通过Hibernate API编写访问数据库的代码，调用相关表类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  创建Hibernate配置文件，hibernate.cfg.xml/hibernate.properties，配置数据库连接，管理对象关系文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  dialect，可配置方言，MySQL/Sybase/Oracle，用于生产SQL查询语句或生产策略</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当Java对象在不同进程节点间传输或持久化HttpSession中对象，持久化类需实现Serializable接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一个XML文件都有独自的DTD文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应在表述层或业务逻辑层对数据验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  SessionFactory，一个实例对应一个数据库，创建Session实例，线程安全，重量级，缓存，内置缓存，外置缓存（二级缓存，存放数据库数据拷贝）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览器与服务器通信而无需刷新页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XHTML/CSS(cascading style sheet)标准化呈现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ajax技术精讲视频教程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  TXT，responseText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  JSON(JavaScript Object Notation，键值对，可为函数)，将responseText（json字符串）转为json对象（eval函数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring事务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tomcat连接数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hibernate表联合，缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java数据结构和算法</t>
-  </si>
-  <si>
-    <t>bc2=bc1;java中地址拷贝，指向同一对象；c++中拷贝对象的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BankAccount bc1;java中创建了引用；c++中创建了对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两个等号，java中判断是否指向同一对象（equals判断数据是否相等）；c++判断是否值相等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery对Ajax进行封装，第一层$.ajax()，第二层load(),$.get(),$.post()，第三层$.getScript(),$.getJSON()</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>args赋值为Date（JSON格式），取消缓存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现Ajax的方法为XMLHttpRequest使用步骤：open，send，onreadystatechange处理函数（服务器触发，每次readyState改变都会触发readystatechange事件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回/传输数据格式：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  XML，得到responseXML，创建节点，把节点加入到detail，笨重但通用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  HTML,结果赋值到innerHTML属性就可以显示，可以只更新一小块，传输数据不方便，需要拼装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>load()用来加载html比较方便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$.get(),$.post(),$.getJSON()使用回调函数，解析data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础语法，DOM，BOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>html里嵌入js代码，从文件外引入，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>script之间共享变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变量建议先定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组，长度无效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>substring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数在head里，调用语句在body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数无需写返回值类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件处理：onFocus/onClick/onLoad/onSubmit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新标记 header/hgroup/article/address/time/section/aside/footer，专注于内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>section是容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aside在相应article旁边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ruby显示超字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML5入门视频教程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>video/audio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>canvas，用JavaScript来画图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储数据（刷新页面，数据仍然存在）：localStorage(请求时使用，存储时间无限)，sessionStorage(关闭浏览器后数据删除)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML+5+从入门到精通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input类型：email/url/number/range/date/search/color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新的表单元素：datalist(用input的list属性引用datalist的id)/keygen/output</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新属性：autocomplete/autofocus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML 5 不基于
-SGML，因此不需要对 DTD 进行引用，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>form: 表单用于向服务器（指定的 URL）传递用户数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;label&gt; 标签定义控件的标注。如果您在 label 元素内点击文本，就会触发此控件。就是说，当用户选择该标
-签时，浏览器就会自动将焦点转到和标签相关的表单控件上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;meta&gt; 元素可提供有关页面的元信息（meta-information），比如针对搜索引擎和更新频度的描述和关键词</t>
-  </si>
-  <si>
-    <t>css(cascading style sheets)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>样式优先级：浏览器缺省设置，外部样式表，内部样式表（位于header标签内部），内联样式（HTML元素内部）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语法：选择器，属性和值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>css经典教程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多重样式，属性值从更具体的样式表中被继承过来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>myBatis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usersMapper.xml，表的sql语句mapping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>users.java，表类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conf.xml，配置连接，注册表Mapper文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.java，根据conf.xml建立InputStream，SqlSessionFactory，SqlSession，根据usersMapper.xml里的sql语句进行数据库操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring MVC + myBatis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>applicationContext.xml</t>
-  </si>
-  <si>
-    <t>springmvc-servlet.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  指定spring配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  拦截器配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  配置数据库连接属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  配置bean属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  启用注解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  对视图解析规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web.xml设置默认页面为index.html，AccessController.java拦截，经过注解，转到welcome.jsp，提交后进入send action，被拦截</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择器分组、继承，类选择器，ID选择器（只能出现一次），派生选择器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freemarker快速入门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计者专注于表示——创建HTML文件、图片、Web页面的其它可
-视化方面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序员创建系统，生成设计页面要显示的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在HTML（或其它要输出的文本）中加入一些特定指令，FreeMarker会在输出页面给最终用户时，用适当的数据替代这些代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML中加入了一些由${…}包围的特定代码，这些特定代码是FreeMarker的指令，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含FreeMarker的指令的文件就称为模板（Template）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{}中的数据来自于数据模型（data model）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据模型由程序员编程来创建，向模板提供变化的信息，这些信息来自于数据库、文件，甚至于在程序中直接生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>典型的数据模型是树型结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FreeMarker模板</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  类似于目录的变量称为hashes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  类似于文件的变量称为scalars</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  另外一种变量是sequences</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ${…}：称为interpolations，FreeMarker会在输出时用实际值进行替代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  FTL标记（FreeMarker模板语言标记）：类似于HTML标记，为了与HTML标记区分，用#开始（有些以@开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  注释：包含在&lt;#--和--&gt;（而不是&lt;!--和--&gt;）之间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  集合可以看作只能由&lt;#list …&gt;指令使用的受限sequences</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  方法：通过传递的参数进行计算，以新对象返回结果（程序员已经将方法变量放到数据模型中）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  用户自定义FTL标记：宏和变换器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTL标记不能位于另一个FTL标记内部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有两种类型的指令：预定义指令和用户定义指令</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户定义指令要使用@替换#，如&lt;@mydirective&gt;...&lt;/@mydirective&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当请求一个Login表单时，那么这就是一次请求，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果在请求/login.htm时的请求是get请求，那么Spring MVC会认为这是进入且第一次页面请求。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果已经显示此页面，然后提交form表单，那么这是一次post请求,那么Spring MVC会认为这不是第一次页面请求，则不会在重新返回显示页面的时候再执行onBindOnNewForm()函数了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>summercool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPRING 实战（第3版）</t>
-  </si>
-  <si>
-    <t>构造器注入，没有自行创建任务，而是在构造时把任务（接口类型）作为构造器参数传入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AOP，使用各种功能层去包裹核心业务层，将安全、事务和日志与核心业务分离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xml里声明切面，定义pointcut，前置通知，后置通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将bean加载到bean工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ClassPathXmlApplicationContext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  FileSystemXmlApplicationContext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  XmlWebApplicationContext</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;context:annotation-config&gt;，spring特殊对待bean的某个注解，用注解指导bean装配，消除spring里配置&lt;property&gt;&lt;constructor-arg&gt;元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;context:component-scan&gt;，代替&lt;context:annotation-config&gt;元素，包括它的工作，还允许自动检测bean定义bean，意味着配置里不使用&lt;bean&gt;元素，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  @Autowired, @Qualifier, @Inject, @Resource, @Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;context:include-filter&gt;, &lt;context:exclude-filter&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  @Component, @Controller, @Repository, @Service, @Configuration, @Bean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaScript权威指南(第六版)</t>
-  </si>
-  <si>
-    <t>前端开发工程师必须掌握的三种技能：描述网页内容的HTML，描述网页样式的CSS，描述网页行为的JavaScript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大部分输出输出等API由宿主环境提供</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>this是对定义方法的对象的引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深入浅出HTML</t>
-  </si>
-  <si>
-    <t>URL(Uniform Resource Locator)是URI(Uniform Resource Identifier)中的一种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL前导斜线表示站点根目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素（开标签，内容，闭标签），属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP权威指南</t>
-  </si>
-  <si>
-    <t>客户端（web浏览器）向服务器发送一条HTTP请求，请求HTTP对象，服务器将对象、类型、长度及其他一些信息放在HTTP响应中发送给客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URI有两种形式，URL和URN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP方法：GET/PUT/DELETE/POST/HEAD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP应用层协议，由TCP/IP传输层协议传输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL没有端口号时，默认端口号为80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过Telnet也可建立TCP/IP连接，发送HTTP请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP代理服务器，位于客户端和服务器之间，可对请求和响应进行过滤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓存是一种特殊代理，将经过代理传送的常用文档复制保存，方便下一个请求同一文档的客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网关将HTTP与其他协议如FTP进行转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隧道，通过HTTP连接承载加密的安全套接字层（SSL），这样SSL流量就可通过只允许WEB流量的防火墙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在缺少了分号就无法正确解析代码的时候，会填补分号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型分两种，原始类型和对象类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象是属性的集合，每个属性都由名值对构成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Infinity/NaN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用整数分而不要使用小数元进行基于货币的运算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UTF-16格式，有可能两个16位值构成一个字符，JavaScript对字符串的操作方法作用于16位值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>两条斜线之间文本构成正则表达式直接量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假值：undefined/null/0/-0/NaN/""</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Window/Location/Document/Element对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>style/className/事件处理属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web浏览器是简单操作系统，提供很多高级服务（比如XMLHttpRequest）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaScript最好通过&lt;script&gt;元素的src属性来嵌入HTML文档里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个WEB页面中包含的所有JavaScript代码，共用一个Window/Document对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序执行两阶段：第一阶段，载入文档内容，执行script里的代码；第二阶段，事件驱动，本阶段第一个事件是load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一阶段时间很短，第二阶段会一直继续下去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTML解析器遇到script元素时，默认必须先执行脚本，再恢复文档的解析和渲染</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象，事件，处理程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础单线程执行模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery里，事件处理程序的注册是通过bind完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setTimeout/clearTimeout/setInterval/clearInterval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Window和Document对象的location属性都是引用的Location对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iframe元素，多个子窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在HTML中使用的id属性（如果Window对象没有此名字的属性）会成为可被脚本访问的全局变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一个标签都是独立浏览上下文，有独立Window对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iframe创建嵌套浏览上下文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>窗体或窗口间共享函数，函数在定义他的作用域执行，而不是在调用他的作用域执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Document,Element,Text是Node的子类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单数据提交到服务器时使用name属性的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id的值必须唯一，name的值不必唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Element类可用getElementsByTagName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class属性中有相同标识符的任何元素属于同一组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Document的querySelector方法接受包含一个CSS选择器的字符串参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jQuery使用$()同querySelectorAll()等效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Element的children列表类似ChildNodes，但只包含Element对象，没有Text和Comment节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Node的textContent属性表示纯文本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>textContext属性将后代Text节点串联在一起，innerText忽略空白，试图保留表格格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>form元素以及表单输入元素input/select/button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户的输入从表单元素收集，表单将这些输入递交服务器，服务器处理输入并生成一个新的HTML页面显示在客户端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端程序，表单需要一个提交按钮，客户端编程中，提交不是必须的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端程序基于表单提交动作，客户端程序基于事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置单选或者复选元素的value属性不改变元素的视觉表现，只改变提交表单时发送到Web服务器的字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有在解析文档时才能使用write方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脚本设置window对象的location属性或调用表单对象的submit方法时，都会初始化HTTP请求，浏览器会加载新页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>另一种是在没有导致Web浏览器重新加载任何窗口或窗体的内容情况下，Web浏览器与服务器之间的通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP请求：请求方法或动作，URL，请求头，请求主体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP响应：状态码，响应头，响应主体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST方法常用于HTML表单，请求主体中包含额外数据（表单数据）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET没有请求主体，POST有主体，且必须匹配Content-Type头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>readyState，指定HTTP请求的状态，值改变会触发readystatechange事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP同步响应：open的第三个参数为false，则send将阻塞直到请求完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaScript是单线程，尽量避免同步请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET请求时，需要发送给服务器的表单数据要作为URL（后跟一个问号）的查询部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormData对象的append方法把多部分请求主体添加到请求中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$()，jQuery()方法，第一种传递CSS选择器，第二种传递Element/Document/Window对象，第三种传递HTML文本字符串，第四种传递一个函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getter/setter是同一个方法，如果传入新值，则设置此值，如果没指定值，则返回当前值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>attr/css方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addClass/removeClass/toggleClass/hasClass方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>load方法，异步加载URL内容，插入选中元素中，替换已存在内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不同站点的页面无法互相读取对方存储的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localStorage存储的数据永久性，除非Web应用刻意删除，或通过配置浏览器来删除；作用域限定在文档源，文档源通过协议、主机和端口来确定，同源文档共享localStorage数据，不同浏览器不共享</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sessionStorage数据和存储数据的脚本所在最顶层窗口或浏览器标签有效期一样，作用域被限定在窗口中，一个标签下两个iframe是可共享的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存储方式：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  Web存储：localStorage/sessionStorage，支持大容量数据存储</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  cookie，存储少量文本数据，每一次HTTP请求都会把这些数据传输到服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  离线Web应用，将Web应用整体存储在客户端，而不仅仅是数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>localStorage或sessionStorage数据改变时，浏览器会在其他对该数据可见的窗口对象上触发存储事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cookie作用域和浏览器进程一致而不是单个浏览器窗口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  IE userData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IE userData永不失效，作用域限制在和当前文档同目录的文档中，存储的数据量比cookie大，比localStorage/sessionStorge小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用程序缓存不会随着浏览器清除缓存而被清除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web浏览器会忽略多余的换行和回车符，把多个空格缩合为一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title属性用来显示“工具提示”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>style属性尽量不使用，因为把内容和表现混在了一起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尽量不使用内联的事件处理器：onclick等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漏掉闭合括号或分割属性和值的冒号，整条规则甚至整个样式表都可能会失灵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比较具体的选择符将凌驾于较不具体的选择符之上并取而代之</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体性大小：全体选择符，元素选择符，类或伪类选择符，ID选择符，内联的style属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有相同具体性时，后面的声明会盖过前面的声明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部样式表只下载一次，然后由浏览器缓存起来，用于后面的页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最靠近内容的样式获胜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任何文本或行内元素必须嵌套在另一个块级元素之中，不能直接包含在body元素中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无序列表ul，有序列表ol，只能包含li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缩写abbr，首字母缩略词acronym，后者是一个可发音的词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>div创建一个逻辑部分，将相关内容和元素组织在一起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位图，像素的颜色和位置信息累加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矢量图形，存储一组数学指令，计算机根据其指示在屏幕上绘图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>table/tr/td</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表单，网页上供用户输入信息的区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交表单时，所有控件的值都以名值对的形式，作为数据集的一部分发送给表单处理器，因此，每个控件都必须有一个name属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>form的内容必须包含在各自的块级容器中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>action属性，为表单处理器的URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get，将表单所有名值对组成的查询字符串添加到表单处理器的URL的末尾。向服务器请求临时静态数据，URL包括查询字符串可能会被重用。数据从服务器传到客户机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post，数据集直接发给表单处理器应用程序，不是URL查询字符串。把数据发到服务器保存，或者安全个人隐私等原因。数据从客户机发到服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行内元素，几个元素可并排出现在一行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一组单选按钮必须具有相同的name属性值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>input type="submit"控件提交整个表单数据集，image按钮有相似功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>button元素类似于type为submit/reset/button/image的input元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lable元素的可选属性for设置为他所说明的控件的唯一性id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>签条与控件之间正确建立了关联，可以通过点击签条把焦点移到他所说明的控件上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控件的视觉性样式是操作系统所固有的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以在行内元素style中通过@import语句导入外部样式表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把样式应用到一个元素时，元素所包含的大多数内容也将继承这个样式，但有些样式不能继承，例如background-image属性就需要明确地为各个元素设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z-index值最大的，显示在最上层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>media规则用于为屏幕显示和打印文档指定不同字体、显示方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在各种主流浏览器中测试文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noscript标签。可把JavaScript代码放在HTML注释中，让那些不支持JavaScript的老浏览器忽略这段代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个等号表示在不进行数据类型转换的前提下是否相等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JavaScript并不要求调用函数时提供的参数个数必须与函数定义中的参数个数一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addEventListener/removeEventListener对应微软的attchEvent/detachEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最好在客户端/浏览器和服务器上处理表单时都对用户输入的信息进行验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正则表达式对象，test，数据验证手段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面模板，实体模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大多数主流浏览器中提供相同的体验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL参数，由;将其与URL其余部分以及各名值对分隔开来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询字符串，由？开始，由&amp;分隔名值对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>片段，由#开始带个字符串，浏览器从服务器获得整个资源后，会根据片段显示感兴趣的资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户端应用程序在向其他应用程序发送任意URL之前，最好把所以不安全或受限字符都进行转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态码：100-199信息提示，200-299成功，300-399资源被移走了，400-499客户端请求出错，500-599服务器错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GET/HEAD是安全方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展方法，对接收到的方法宽容，对发出的方法严格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很多客户端错误都是由浏览器来处理的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浏览器处理URL时，将服务器IP和端口从URL中分离，建立到Web服务器的TCP连接，通过这条连接发送一条请求报文，读取响应，关闭连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并行连接和持久连接（HTTP1.0 keep-alive连接，HTTP1.1 persistent connection默认情况下激活）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭连接的输出信道安全，关闭输入信道危险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web服务器：单线程，多进程及多线程，复用IO，复用的多线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不能让URL退到文档根目录之外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理连接的是两个或多个使用相同协议的应用程序，网关连接的则是两个或多个使用不同协议的端点，扮演协议转换器角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将客户端流量发给代理：修改客户端浏览器代理配置，拦截网络的交换设备及路由设备，放在Web服务器之前假扮服务器的名字和IP，Web服务器重定向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓存命中、未命中、再验证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将响应中Date首部的值与当前时间进行比较，如果响应中的比较早，客户端可以认为这是一条缓存的响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web浏览器中Refresh或Reload，强制对浏览器或代理缓存中可能过期的内容进行刷新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用程序服务器网关，将HTTP客户端连接到服务器端的应用程序上去，电子商店购物，天气预报，股票报价等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用网关接口CGI，为每条CGI请求引发一个新进程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速CGI，作为持久守护进程运行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOAP是向HTTP报文中添加XML信息的标准方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web隧道，在HTTP连接中嵌入非HTTP流量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C# WinForm 实践开发教程</t>
-  </si>
-  <si>
-    <t>Program.cs，决定哪个WinForm窗体第一个被执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  InitializeComponent方法，界面设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Form.Designer.cs，系统自动生成，界面设计规则，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  Dispose方法，释放系统资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Form.cs，窗体代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>.NET Framework包含多种编程语言，并且彼此之间可以通信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c#入门经典第五版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码由VS编译成通用中间语言CIL，Just-In-Time (JIT)编译器把CIL编译为专用于OS和目标机器结构的本机代码，这样OS才能执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共语言运行库CLR，运行可执行文件，管理内存/安全性/跨语言调试，垃圾回收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WinForm，WPF（更高级）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>///特殊注释，可用于创建文档说明书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用#region和#endregion折叠代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sbyte/byte/short/unshort/int/uint/long/ulong/float/double/decimal/char/bool/string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拒绝分布在多行上的字符串字面值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制台输出文本，每个占位符用每个变量的值来替代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逐字指定字符串字面值，@加双引号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一元运算符+，对结果没有影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以用!/&amp;/|/^来运算布尔值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用&amp;&amp;/||比用&amp;/|性能好，因为后者需要计算两个操作数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二的补位系统，-x=~x+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行完一个case块后，再执行第二个case语句是非法的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default语句不一定要放在比较操作列表的最后，还可以把他放在case语句一起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用goto语句从外部进入循环是非法的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool没有隐式转换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任何类型A，只要其取值范围完全包含在类型B的取值范围内，就可以隐式转换成B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checked/unchecked，表达式溢出检查上下文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显式转换总是进行溢出检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举的基本类型可以是byte/sbyte/short/ushort/int/uint/long/ulong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得枚举的字符串值，ToString</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构和枚举一样，是在代码主体之外声明的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组必须在访问之前初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以指定数组大小，再用new初始化元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果用变量定义大小，改变量必须是常量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreach不存在访问非法元素的危险，但对数组内容进行只读访问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多维数组用多个逗号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组的数组，锯齿数组，每行有不同的元素个数，foreach必须循环每个子数组和数组本身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了获得可写的char数组，要使用ToCharArray函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctrl键使命令列表变透明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>函数的名称和参数共同定义了函数的签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数数组，最后一个参数，params关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C_#4.0中文视频教程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用参数，ref，函数定义以及调用都要指定必须使用初始化过的变量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出参数，out，可把未赋值的变量用做out参数，变量之前被赋的值会在函数执行时丢失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有给变量赋值后，这个变量才占一个内存空间，如果在循环中赋值，实际是局部值，循环外就超出作用域了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最好在声明和初始化所有变量后，再在代码块中使用它们</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>委托，delegate，两种初始化方法，一种new，一种直接赋值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Console.WriteLine()/Debug.WriteLine()/Trace.WriteLine()/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Console.Write()/Debug.Write()/Trace.Write()/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Console.WriteLineIf()/Debug.WriteLineIf()/Trace.WriteLineIf()/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Console.WriteIf()/Debug.WriteIf()/Trace.WriteIf()/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟踪点输入要输出的字符串或者变量值，跟踪点由VS处理，并不在应用程序里</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assertion语句中断，Debug.Assert/Trace.Assert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在异常未处理时，异常信息才会显示出来，应用程序才会中断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>catch或finally可以二选一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在case块里可以用throw而不用break</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有throw的话，先执行finally块，再执行上级匹配的catch块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>new调用构造函数，不带参数的是默认构造函数</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>静态构造函数只能有一个</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>using varialble，会在代码块结尾自动删除变量</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>值类型总是包含一个值，引用类型可以说null，表示他们不包含值</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构类型和类的重要区别是，结构类型是值类型</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>会话cookie，退出浏览器被删除</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>持久cookie，存在硬盘上，计算机重启仍然存在</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果没有设置Expires或Max-Age，就是会话cookie</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器贴在用户上的贴纸</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器set cookie，浏览器将cookie存到cookie数据库中，用户访问站点时，浏览器会将相应服务器的cookie，在请求首部发出去</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MVC是所有面向对象程序设计语言都应遵守的规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WEB应用是一种请求/响应模式下的应用，如果用户不发出请求，视图无法主动更新自己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>插拔式拦截器，插件机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   execute返回字符串，将处理结果存入stack context中，StrutsPrepareAndExecuteFilter根据返回字符串跳转到指定视图，并读取stack context中信息输出属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Struts2标签库替代JSTL标签库&lt;s:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web.xml配置核心filter，StrutsPrepareAndExecuteFilter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>struts.xml，定义action，指定实现类，定义action处理结果与视图资源之间的映射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>struts.properties，配置全局属性，键值对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实现Action接口，可用常量SUCCESS等代替字符串success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActionContext.getContext().getSession返回map，设置map的user值，可返回给jsp(view)，jsp用$(sessionScope.user}获取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action中成员属性，不一定用于封装用户请求参数，也可能封装了Action需要传递到页面的值，这些值被封装在ValueStack对象中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Struts2和Spring整合的关键，是让Struts2的Action可以访问Spring容器中的业务逻辑组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org.springframework.core/beans/context提供Spring IoC容器支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring容器不仅负责管理各组件的创建，而且负责管理组件之间的依赖关系，包括Action/Service/Dao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Struts2插件为JAR文件，包含一个struts-plugin.xml文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Struts2应用加载顺序：struts-default.xml(struts2-core.jar)-&gt;struts-plugin.xml(plugin JAR)-&gt;struts.xml(应用相关配置)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Struts2插件提供了拦截器/Bean的实现类/相应配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整合Spring：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  Spring.jar/commons-logging.jar/struts2-spring-plugin.jar/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  Spring容器初始化-ContextLoaderListener/contextConfigLocation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A组件（依赖组件）调用B组件（被依赖组件）的方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制器调用业务逻辑组件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  服务器定位模式-业务逻辑组件在某个容器中运行，并对外提供服务-传统EJB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  工厂模式-Spring工厂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Struts2核心控制器拦截用户请求，转发给对应Action，这个过程是固定的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    依赖注入-struts.xml中配置伪Action，applicationContext中配置伪Action对应的实际Spring bean以及bean引用的业务逻辑service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    自动装配-Spring自动管理bean之间依赖关系，无需用ref显式指定依赖。struts.xml仍然配置真实Action，增加struts.objectFactory.spring.autoWire，applicationContext配置service bean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面中输出一个key值，在不同语言环境下对应不同字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>native2ascii messageResource.properties messageResource_zh_CN.properties</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsp国际化：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;s:text name="messageKey"/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;s:property value="getText('messageKey')"/&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  key属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action国际化：getText("messageKey")</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ActionName-validation.xml校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据校验方法：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ActionSupport类，提供数据校验功能，重写validate方法，addFieldError，如果有校验错误，将转到input属性对应的视图</t>
+    <t>Oracle, Sybase， MySQL，SQL Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL, PL/SQL, stored procedure, sequences, optimization and performance tuning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSL/TLS, certificates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUnit, TDD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -5851,7 +5879,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5883,9 +5911,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5917,6 +5946,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6092,7 +6122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6154,11 +6184,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6170,87 +6200,122 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>561</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>559</v>
+      <c r="A4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>558</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>563</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>265</v>
+        <v>555</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>560</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>562</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>263</v>
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>1096</v>
       </c>
     </row>
   </sheetData>
@@ -6261,7 +6326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6292,147 +6357,147 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -6442,22 +6507,22 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -6473,7 +6538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6489,32 +6554,32 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -6524,22 +6589,22 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -6547,42 +6612,42 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -6592,7 +6657,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -7018,7 +7083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7159,77 +7224,77 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -7244,7 +7309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -7255,262 +7320,262 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -7525,7 +7590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A54"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -7536,92 +7601,92 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:1">
@@ -7631,82 +7696,82 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -7716,22 +7781,22 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="8" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="8" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="8" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="45" spans="1:1">
@@ -7744,37 +7809,37 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="4" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="5" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -7785,7 +7850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7801,42 +7866,42 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -7846,7 +7911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -7857,22 +7922,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -7882,52 +7947,52 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -7937,62 +8002,62 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -8002,172 +8067,172 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -8177,142 +8242,142 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -8328,10 +8393,10 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A169" workbookViewId="0">
       <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
@@ -8339,94 +8404,94 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D11" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="D15" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="C16" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B18" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="B19" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B21" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="B22" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8436,12 +8501,12 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8451,102 +8516,102 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="7" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="50" spans="1:1">
@@ -8556,112 +8621,112 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="7" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="74" spans="1:1">
@@ -8671,382 +8736,382 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="7" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="168" spans="1:1">
@@ -9056,252 +9121,252 @@
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -9313,7 +9378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9383,7 +9448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView topLeftCell="A113" workbookViewId="0">
@@ -9394,56 +9459,56 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B3" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B4" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9453,87 +9518,87 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -9543,112 +9608,112 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -9658,452 +9723,452 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="9" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="9" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="9" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="9" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="9" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="149" spans="1:1">
@@ -10122,7 +10187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10133,47 +10198,47 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
   </sheetData>
@@ -10183,7 +10248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
@@ -10194,12 +10259,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -10209,32 +10274,32 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -10244,277 +10309,277 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="9" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="9" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="9" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="9" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="9" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -10530,7 +10595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10541,42 +10606,42 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -10586,7 +10651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -10711,7 +10776,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10737,7 +10802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -11093,672 +11158,672 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="248" spans="1:1">
@@ -11773,7 +11838,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11788,7 +11853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11814,7 +11879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11855,7 +11920,7 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -11870,7 +11935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11881,22 +11946,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -11911,7 +11976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12027,17 +12092,17 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:1">
@@ -12062,7 +12127,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -12077,32 +12142,32 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:1">
@@ -12112,12 +12177,12 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="面向对象多线程" sheetId="1" r:id="rId1"/>
@@ -19,18 +19,14 @@
     <sheet name="知识点" sheetId="3" r:id="rId10"/>
     <sheet name="data structure" sheetId="4" r:id="rId11"/>
     <sheet name="design patern" sheetId="5" r:id="rId12"/>
-    <sheet name="java-sunxin" sheetId="12" r:id="rId13"/>
-    <sheet name="Java完全参考手册" sheetId="13" r:id="rId14"/>
-    <sheet name="J2EE参考大全" sheetId="16" r:id="rId15"/>
-    <sheet name="hsp-j2ee" sheetId="17" r:id="rId16"/>
-    <sheet name="java面试" sheetId="18" r:id="rId17"/>
-    <sheet name="javascript" sheetId="20" r:id="rId18"/>
-    <sheet name="java" sheetId="22" r:id="rId19"/>
-    <sheet name="web" sheetId="23" r:id="rId20"/>
-    <sheet name="db" sheetId="24" r:id="rId21"/>
-    <sheet name="c#" sheetId="21" r:id="rId22"/>
-    <sheet name="vs2010MFC" sheetId="19" r:id="rId23"/>
-    <sheet name="WebRTC" sheetId="15" r:id="rId24"/>
+    <sheet name="java" sheetId="22" r:id="rId13"/>
+    <sheet name="j2ee" sheetId="17" r:id="rId14"/>
+    <sheet name="javascript" sheetId="20" r:id="rId15"/>
+    <sheet name="web" sheetId="23" r:id="rId16"/>
+    <sheet name="db" sheetId="24" r:id="rId17"/>
+    <sheet name="c#" sheetId="21" r:id="rId18"/>
+    <sheet name="vs2010MFC" sheetId="19" r:id="rId19"/>
+    <sheet name="WebRTC" sheetId="15" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -40,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="1106">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2217,10 +2213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SVN and Git，ClearCase,CVS,JITA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Tomcat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4342,7 +4334,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSON,XML(DOM, SAX, JAXB)/XSLT, MIB ,Web Services</t>
+    <t>Oracle, Sybase， MySQL，SQL Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSL/TLS, certificates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUnit, TDD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL, PL/SQL, stored procedure, sequences, optimization and performance tuning， relational and columnar database modeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SVN and Git，ClearCase,CVS,JITA，Maven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GWT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creating web services (SOAP and/or REST)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ETL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON,XML(DOM, SAX, JAXB)/XSLT, MIB </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4380,7 +4404,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>EJB, JSF，Servlet, JSP, Struts and Tiles，Spring/MVC, Hibernate，</t>
+      <t>EJB, JSF，Servlet, JSP, Struts and Tiles，Spring/MVC, Hibernate，iBatis/myBatis,</t>
     </r>
     <r>
       <rPr>
@@ -4391,24 +4415,32 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">JavaScript,HTML5/HTML, Dojo or jquery,CSS,AJAX,Node.js </t>
+      <t>JavaScript,HTML5/HTML, Dojo or jquery,CSS,AJAX</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Oracle, Sybase， MySQL，SQL Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL, PL/SQL, stored procedure, sequences, optimization and performance tuning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSL/TLS, certificates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JUnit, TDD</t>
+    <t>agile,scrum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hsp-j2ee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J2EE参考大全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java-sunxin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java完全参考手册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java面试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4589,18 +4621,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
+        <xdr:cNvPr id="2" name="直接箭头连接符 1"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4636,18 +4668,18 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4683,18 +4715,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4730,18 +4762,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4777,18 +4809,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4824,23 +4856,23 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直接箭头连接符 13"/>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1190625" y="1647825"/>
+          <a:off x="1190625" y="2333625"/>
           <a:ext cx="200025" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4871,23 +4903,23 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直接箭头连接符 14"/>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="1190625" y="1895476"/>
+          <a:off x="1190625" y="2581276"/>
           <a:ext cx="190500" cy="85725"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4918,23 +4950,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="直接箭头连接符 15"/>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="1547813" y="1833561"/>
+          <a:off x="1547813" y="2519361"/>
           <a:ext cx="200025" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4965,23 +4997,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1952625" y="1647825"/>
+          <a:off x="1952625" y="2333625"/>
           <a:ext cx="342900" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5012,23 +5044,23 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="1933576" y="1904999"/>
+          <a:off x="1933576" y="2590799"/>
           <a:ext cx="295275" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5059,13 +5091,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5116,13 +5148,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5174,18 +5206,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>638176</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>121</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="矩形 18"/>
+        <xdr:cNvPr id="14" name="矩形 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5232,18 +5264,18 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="矩形 19"/>
+        <xdr:cNvPr id="15" name="矩形 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5290,18 +5322,18 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>173</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="矩形 20"/>
+        <xdr:cNvPr id="16" name="矩形 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5347,18 +5379,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直接箭头连接符 22"/>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="12" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -5396,20 +5428,20 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>638177</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>177</xdr:row>
       <xdr:rowOff>28576</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+        <xdr:cNvPr id="18" name="直接箭头连接符 17"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="19" idx="1"/>
+          <a:stCxn id="14" idx="1"/>
           <a:endCxn id="12" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -5446,21 +5478,21 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>113</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>138113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直接箭头连接符 26"/>
+        <xdr:cNvPr id="19" name="直接箭头连接符 18"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="3"/>
-          <a:endCxn id="20" idx="1"/>
+          <a:endCxn id="15" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5496,21 +5528,21 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>290513</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>371476</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>176</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直接箭头连接符 28"/>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="2"/>
-          <a:endCxn id="19" idx="0"/>
+          <a:endCxn id="14" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5546,21 +5578,21 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>174</xdr:row>
       <xdr:rowOff>42863</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直接箭头连接符 30"/>
+        <xdr:cNvPr id="21" name="直接箭头连接符 20"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="3"/>
-          <a:endCxn id="21" idx="1"/>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5597,13 +5629,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5655,18 +5687,18 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>137</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="矩形 23"/>
+        <xdr:cNvPr id="23" name="矩形 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5720,21 +5752,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>61913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>139</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直接箭头连接符 3"/>
+        <xdr:cNvPr id="24" name="直接箭头连接符 23"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="22" idx="3"/>
-          <a:endCxn id="24" idx="1"/>
+          <a:endCxn id="23" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5770,18 +5802,18 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="矩形 25"/>
+        <xdr:cNvPr id="25" name="矩形 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6185,10 +6217,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6200,12 +6232,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -6215,107 +6247,127 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>558</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>1087</v>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>1094</v>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>556</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>262</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>260</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>557</v>
+      <c r="A30" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>1096</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -6507,22 +6559,22 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -6594,17 +6646,17 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -6612,42 +6664,42 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -6658,1189 +6710,694 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A82"/>
+  <dimension ref="A1:A213"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>100</v>
+      <c r="A1" s="1" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>105</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>109</v>
+        <v>724</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>111</v>
+      <c r="A12" s="1" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>165</v>
+      <c r="A38">
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>506</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>167</v>
+        <v>521</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>522</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>523</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>170</v>
+        <v>524</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>525</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>526</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>174</v>
+        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>175</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>178</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>179</v>
+      <c r="A55" s="1" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>180</v>
+        <v>598</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>182</v>
+      <c r="A57">
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>183</v>
+      <c r="A59" s="1" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>191</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>194</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>202</v>
+        <v>115</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>204</v>
+        <v>117</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>206</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
         <v>207</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45">
-        <v>333</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
-        <v>308</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A54"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="6" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="6" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="6" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="6" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="8" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="8" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="8" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="4" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="5" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="5" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="5" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="5" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>539</v>
-      </c>
+    <row r="206" spans="1:1">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7849,68 +7406,1510 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:D335"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="C312" sqref="C312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1">
-        <v>16</v>
+      <c r="A1" s="4" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>559</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>563</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>561</v>
+      <c r="A15" s="4" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>562</v>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>724</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>726</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>725</v>
+        <v>698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="8" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="8" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="8" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="4" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="5" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="C67" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>570</v>
+      </c>
+      <c r="D68" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="C69" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="C71" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>573</v>
+      </c>
+      <c r="D72" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="C73" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>538</v>
+      </c>
+      <c r="B75" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="B76" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>588</v>
+      </c>
+      <c r="B78" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="7" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="7" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="7" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="7" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="7" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="7" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1">
+      <c r="A279" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1">
+      <c r="A282" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1">
+      <c r="A284" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1">
+      <c r="A285" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1">
+      <c r="A286" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1">
+      <c r="A287" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1">
+      <c r="A288" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1">
+      <c r="A289" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1">
+      <c r="A290" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1">
+      <c r="A292" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1">
+      <c r="A298" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1">
+      <c r="A303" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1">
+      <c r="A307" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1">
+      <c r="A309" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1">
+      <c r="A310" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1">
+      <c r="A312" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1">
+      <c r="A314" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1">
+      <c r="A319" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1">
+      <c r="A327" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1">
+      <c r="A330" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1">
+      <c r="A332" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1">
+      <c r="A333" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1">
+      <c r="A335">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A98"/>
   <sheetViews>
@@ -7922,7 +8921,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -7947,52 +8946,52 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -8002,62 +9001,62 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -8067,172 +9066,172 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -8242,147 +9241,1294 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98">
         <v>618</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B149"/>
+  <sheetViews>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>583</v>
+      </c>
+      <c r="B4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="9" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="9" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="9" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="9" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="9" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="9">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A95" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>626</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="7" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="9" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="9" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="9" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="9" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="9" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="9">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -8394,986 +10540,57 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="C10" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>571</v>
-      </c>
-      <c r="D11" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="C12" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="C14" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>574</v>
-      </c>
-      <c r="D15" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="C16" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>538</v>
-      </c>
-      <c r="B18" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>589</v>
-      </c>
-      <c r="B21" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="7" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="7" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="7" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="7" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="7" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" s="1" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
-        <v>784</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9448,1209 +10665,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B149"/>
-  <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>580</v>
-      </c>
-      <c r="B2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>582</v>
-      </c>
-      <c r="B3" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>584</v>
-      </c>
-      <c r="B4" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="1" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="9" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="9" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="9" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" s="9" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" s="9" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" s="9">
-        <v>293</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A95" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>627</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A82"/>
-  <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="7" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="9" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="9" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="9" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="9" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="9" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="9">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>537</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="面向对象多线程" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="1106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1119">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4441,6 +4441,58 @@
   </si>
   <si>
     <t>java面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端，服务器层，存储引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高性能MySQL（第3版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务ACID：原子性atomicity，一致性consistency，隔离性isolation，持久性durability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔离级别：read uncommitted,read committed,repeatable read,serializable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改行为记录到事务日志，再刷回磁盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL提供两种事务型存储引擎：InnoDB/NDB Cluster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行级锁只在存储引擎层实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务由存储引擎实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事务型和非事务型表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多版本并发控制MVCC是行级锁的一个变种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大数据处理时，面向列的方式可能效率更高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先使用InnoDB引擎，尽量不要混合使用多种存储引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多InnoDB数据库的数据量在3-5TB之间，10TB以上，就需要建立数据仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6220,7 +6272,7 @@
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6712,8 +6764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10132,10 +10184,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10183,6 +10235,76 @@
     <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="1130">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4493,6 +4493,50 @@
   </si>
   <si>
     <t>很多InnoDB数据库的数据量在3-5TB之间，10TB以上，就需要建立数据仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器插件API付费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>核心是，存储引擎和服务层之间处理查询时通过API来回交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基准测试benchmark是针对系统设计的一种压力测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在新系统正式上线到生产环境之前进行基准测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基准测试简单直接，不同于真实压力测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试指标：吞吐量，响应时间或者延迟，并发性，可扩展性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发性关注正在工作的并发操作或同时工作的线程数或者连接数，不是单纯地同时打开了多少数据库连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能定义为完成某件任务所需要的时间度量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量服务器执行查询需要的时间花在了什么地方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于执行时间的分析，基于等待的分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在所有新项目中都包含性能剖析的代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10184,10 +10228,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10197,36 +10241,6 @@
         <v>592</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>616</v>
-      </c>
-    </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>625</v>
@@ -10244,67 +10258,152 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>1106</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>1112</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1108</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1109</v>
+        <v>613</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
-        <v>69</v>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="9" activeTab="16"/>
@@ -2444,10 +2444,6 @@
   </si>
   <si>
     <t>应用程序性能剖析，为sql语句计时，随机采样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>慢查询日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4539,11 +4535,15 @@
     <t>在所有新项目中都包含性能剖析的代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>慢查询日志带来的开销可以忽略不计，可能消耗大量磁盘空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -6007,7 +6007,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6039,10 +6039,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6074,7 +6073,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6250,7 +6248,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6312,7 +6310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6328,12 +6326,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -6343,27 +6341,27 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -6383,7 +6381,7 @@
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -6393,37 +6391,37 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="28" spans="1:1">
@@ -6453,17 +6451,17 @@
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
   </sheetData>
@@ -6474,7 +6472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6655,22 +6653,22 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -6686,7 +6684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6747,12 +6745,12 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -6765,37 +6763,37 @@
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -6805,7 +6803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A213"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
@@ -6816,7 +6814,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -6846,22 +6844,22 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="13" spans="1:1">
@@ -7076,7 +7074,7 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -7503,7 +7501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D335"/>
   <sheetViews>
     <sheetView topLeftCell="A295" workbookViewId="0">
@@ -7514,7 +7512,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -7589,22 +7587,22 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -7664,27 +7662,27 @@
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -7704,17 +7702,17 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -7909,67 +7907,67 @@
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="7" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -7979,7 +7977,7 @@
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="110" spans="1:1">
@@ -7999,92 +7997,92 @@
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -8094,382 +8092,382 @@
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="7" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="7" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="225" spans="1:1">
@@ -8479,257 +8477,257 @@
     </row>
     <row r="227" spans="1:1">
       <c r="A227" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="283" spans="1:1">
@@ -9006,7 +9004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -9047,47 +9045,47 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="8" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="8" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="1:1">
@@ -9097,62 +9095,62 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -9162,172 +9160,172 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="68" spans="1:1">
@@ -9337,142 +9335,142 @@
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -9488,7 +9486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
@@ -9499,7 +9497,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9533,22 +9531,22 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9558,87 +9556,87 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -9648,112 +9646,112 @@
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="54" spans="1:1">
@@ -9763,452 +9761,452 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="9" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="9" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="9" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="9" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="9" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="149" spans="1:1">
@@ -10227,11 +10225,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10243,17 +10241,17 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -10278,117 +10276,117 @@
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -10398,12 +10396,12 @@
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>616</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -10413,7 +10411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
@@ -10424,7 +10422,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -10439,32 +10437,32 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -10474,277 +10472,277 @@
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="7" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="9" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="9" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="9" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="9" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="9" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="82" spans="1:1">
@@ -10760,7 +10758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10816,7 +10814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10886,7 +10884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -11011,7 +11009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11037,7 +11035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -12073,7 +12071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12088,7 +12086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12114,7 +12112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12170,7 +12168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12211,7 +12209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="9" activeTab="16"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="1130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="1140">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4539,11 +4539,51 @@
     <t>慢查询日志带来的开销可以忽略不计，可能消耗大量磁盘空间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>大多数遵循标准的厂商都在特定产品里实现了对标准SQL的增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL入门经典（第5版）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用变长数据类型保存长度不定的字符串，以节省数据库空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定长数据类型利用空格来填充字段里的空白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户可根据已有数据类型来定制自己的数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>域类似自定义类型，可向域添加约束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有用于计算的数字才以数值类型保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规划是与数据库某个用户名相关联的数据库对象集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问自己拥有的表，不必引用规划名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同规划可以具有名称相同的表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -6007,7 +6047,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6039,9 +6079,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6073,6 +6114,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6248,7 +6290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6310,7 +6352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6472,7 +6514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6684,7 +6726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6803,7 +6845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A213"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
@@ -7501,7 +7543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D335"/>
   <sheetViews>
     <sheetView topLeftCell="A295" workbookViewId="0">
@@ -9004,7 +9046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -9486,7 +9528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
@@ -10225,11 +10267,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10404,6 +10446,61 @@
         <v>131</v>
       </c>
     </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10411,7 +10508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
@@ -10758,7 +10855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10814,7 +10911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10884,7 +10981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -11009,7 +11106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11035,7 +11132,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -12071,7 +12168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12086,7 +12183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12112,7 +12209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12168,7 +12265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12209,7 +12306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="1140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="1143">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4577,6 +4577,18 @@
   </si>
   <si>
     <t>不同规划可以具有名称相同的表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除表时，如果使用restrict选项，并且表被视图或约束所引用，会返回错误，如果使用cascade选项，会成功，且全部引用视图和约束都被删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键，子表里一个字段，引用父表的主键，确保表之间引用完整性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查约束里可以使用几乎任何条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10268,10 +10280,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:A61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10497,8 +10509,23 @@
       </c>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58">
-        <v>32</v>
+      <c r="A58" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="9" activeTab="16"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="1150">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4591,11 +4591,38 @@
     <t>检查约束里可以使用几乎任何条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">  第一规格形式，把原始数据分解到表中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  第二规格形式，提取对主键仅有部分依赖的数据，把他们保存到另一个表里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  第三规格形式，删除表里不依赖于主键的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去规格化，修改规格化表的构成，在可控制的数据冗余范围内提高数据库性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规格化，把原始数据库分解为表，减少冗余。想进行后一种规格化，数据库必须处于前一种规格化形式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可编程支持：Oracle的PL/SQL，SQL Server的T-SQL</t>
+  </si>
+  <si>
+    <t>MySQL性能调优与架构设计 PDF中文版全册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -6059,7 +6086,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6091,10 +6118,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6126,7 +6152,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6302,7 +6327,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6364,7 +6389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6526,7 +6551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6738,7 +6763,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6857,7 +6882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A213"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
@@ -7555,7 +7580,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D335"/>
   <sheetViews>
     <sheetView topLeftCell="A295" workbookViewId="0">
@@ -9058,7 +9083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -9540,7 +9565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
@@ -10279,11 +10304,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10524,8 +10549,48 @@
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61">
-        <v>45</v>
+      <c r="A61" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -10535,7 +10600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
@@ -10882,7 +10947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10938,7 +11003,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11008,7 +11073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -11133,7 +11198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11159,7 +11224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -12195,7 +12260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12210,7 +12275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12236,7 +12301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12292,7 +12357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12333,7 +12398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="9" activeTab="16"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="1150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="1163">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4618,11 +4618,63 @@
     <t>MySQL性能调优与架构设计 PDF中文版全册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>优化数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  尽量使用可以正确存储数据的最小数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  使用简单数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  最好指定列为NOT NULL，如果在列上建索引，更是如此</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只在对小数进行精确计算时才使用DECIMAL。在数据量比较大时，可以考虑用BIGINT代替DECIMAL，将数字根据小数的位数乘以相应倍数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储VARCHAR会在末尾加空格，CHAR会删除末尾空格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR需要额外的字节来记录长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用\0填充BINARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二进制比较比字符比较快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只分配真正需要的空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当BLOB/TEXT值太大时，数据库里存指针，外部存储实际值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽量避免使用BLOB/TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举在表中实际存储为整数，在.frm中保存数字-字符串映射表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -6086,7 +6138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6118,9 +6170,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6152,6 +6205,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6327,7 +6381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6389,7 +6443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6551,7 +6605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6763,7 +6817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6882,7 +6936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A213"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
@@ -7580,7 +7634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D335"/>
   <sheetViews>
     <sheetView topLeftCell="A295" workbookViewId="0">
@@ -9083,7 +9137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -9565,7 +9619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
@@ -10304,11 +10358,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10478,118 +10532,183 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46">
-        <v>131</v>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="1" t="s">
-        <v>1131</v>
+      <c r="A48" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>1130</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>1132</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>1133</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>1134</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>1135</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>1136</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>1137</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>1138</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>1139</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>1140</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>1141</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>1144</v>
+      <c r="A60">
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>1145</v>
+      <c r="A64" s="1" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1146</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66">
-        <v>53</v>
+      <c r="A66" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="1" t="s">
-        <v>1149</v>
+      <c r="A68" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70">
+    <row r="86" spans="1:1">
+      <c r="A86">
         <v>13</v>
       </c>
     </row>
@@ -10600,7 +10719,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
@@ -10947,7 +11066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11003,7 +11122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11073,7 +11192,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -11198,7 +11317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11224,7 +11343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -12260,7 +12379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12275,7 +12394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12301,7 +12420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12357,7 +12476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12398,7 +12517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="1168">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4668,6 +4668,26 @@
   </si>
   <si>
     <t>枚举在表中实际存储为整数，在.frm中保存数字-字符串映射表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽量使用TIMESTAMP，而不是DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整数是标识列最好选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要在关联时比较的列使用相同数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该用无符号整数存储IP地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符、日期、时间数据类型的值必须以单引号包围，数值类型或NULL不必</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10359,10 +10379,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A86"/>
+  <dimension ref="A1:A99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10598,117 +10618,142 @@
       </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60">
-        <v>164</v>
+      <c r="A60" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
+      <c r="A64">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1" t="s">
         <v>1131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>1136</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>1137</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>1147</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82">
-        <v>53</v>
+      <c r="A82" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="1" t="s">
-        <v>1149</v>
+      <c r="A84" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86">
+    <row r="99" spans="1:1">
+      <c r="A99">
         <v>13</v>
       </c>
     </row>

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1173">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4688,6 +4688,26 @@
   </si>
   <si>
     <t>字符、日期、时间数据类型的值必须以单引号包围，数值类型或NULL不必</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果为列指定了默认值，如有NULL值被插入，就可自动转换成默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLLBACK回退到上一个COMMIT或ROLLBACK语句，或者ROOLBACK TO SAVEPOINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET TRANSACTION，初始化数据库事务，指定事务的特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果一直没有COMMIT或ROLLBACK，临时存储区域的回退信息会不断增长导致没有剩余空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE DATABASE或TRUNCATE没有事务，事务命令只适用于INSERT/UPDATE/DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10382,7 +10402,7 @@
   <dimension ref="A1:A99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10738,8 +10758,33 @@
       </c>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89">
-        <v>56</v>
+      <c r="A89" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:1">

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="面向对象多线程" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="1183">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4710,12 +4710,52 @@
     <t>CREATE DATABASE或TRUNCATE没有事务，事务命令只适用于INSERT/UPDATE/DELETE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>DISTINCT选项去除重复记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升序是默认排序方式，ORDER BY后字段可为整数，表示SELECT后相应位置的字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL/SQL Server数据大小写不敏感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作符IN可以得到与操作符OR一样的结果，但速度更快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIKE通配符，%表示零个一个或多个字符，_表示一个数字或字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL把一个值与另一个集合里的全部值进行比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOME/ANY把一个值与另一个集合里的任意值进行比较</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果表达式中只有乘法和除法，有没有圆括号和他们的位置都不会影响最终结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java核心技术 卷1 基础知识 原书第9版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不提倡设置CLASSPATH全局变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4785,6 +4825,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4808,7 +4855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4837,6 +4884,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6178,7 +6228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6210,10 +6260,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6245,7 +6294,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6421,7 +6469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6483,7 +6531,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6645,7 +6693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6857,7 +6905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6976,11 +7024,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A213"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7658,6 +7706,21 @@
     <row r="141" spans="1:1">
       <c r="A141" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="10">
+        <v>55</v>
       </c>
     </row>
     <row r="206" spans="1:1">
@@ -7674,7 +7737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D335"/>
   <sheetViews>
     <sheetView topLeftCell="A295" workbookViewId="0">
@@ -9177,7 +9240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -9659,7 +9722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
@@ -10398,11 +10461,11 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10783,22 +10846,62 @@
       </c>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94">
-        <v>71</v>
+      <c r="A94" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="1" t="s">
-        <v>1149</v>
+      <c r="A97" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99">
+    <row r="106" spans="1:1">
+      <c r="A106">
         <v>13</v>
       </c>
     </row>
@@ -10809,7 +10912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
@@ -11156,7 +11259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11212,7 +11315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11282,7 +11385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -11407,7 +11510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11433,7 +11536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -12469,7 +12572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12484,7 +12587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12510,7 +12613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12566,7 +12669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12607,7 +12710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/NoteTest/src/note.xlsx
+++ b/NoteTest/src/note.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="6555" firstSheet="9" activeTab="12"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="1183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="1189">
   <si>
     <t>process</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4750,12 +4750,36 @@
     <t>不提倡设置CLASSPATH全局变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>不要在boolean类型与任何数值类型之间进行强制类型转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先检查字符串是否为null再检查是否为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UTF-16表示Unicode代码点，所以最好使用代码点代码单元，不要用char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringBuilder前身StringBuffer(可多线程，但效率低)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Console只能读取一行，Scanner可读取多行/数字/单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java7后，case标签可以是字符串值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4825,13 +4849,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4855,7 +4872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4884,9 +4901,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6228,7 +6242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6260,9 +6274,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6294,6 +6309,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6469,7 +6485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6531,7 +6547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6693,7 +6709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6905,7 +6921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7024,11 +7040,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7719,8 +7735,38 @@
       </c>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="10">
-        <v>55</v>
+      <c r="A145" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151">
+        <v>90</v>
       </c>
     </row>
     <row r="206" spans="1:1">
@@ -7737,7 +7783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D335"/>
   <sheetViews>
     <sheetView topLeftCell="A295" workbookViewId="0">
@@ -9240,7 +9286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A98"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -9722,7 +9768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B149"/>
   <sheetViews>
     <sheetView topLeftCell="A118" workbookViewId="0">
@@ -10461,7 +10507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A106"/>
   <sheetViews>
     <sheetView topLeftCell="A79" workbookViewId="0">
@@ -10912,7 +10958,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A82"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
@@ -11259,7 +11305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11315,7 +11361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11385,7 +11431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -11510,7 +11556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11536,7 +11582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A248"/>
   <sheetViews>
     <sheetView topLeftCell="A234" workbookViewId="0">
@@ -12572,7 +12618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12587,7 +12633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12613,7 +12659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12669,7 +12715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12710,7 +12756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
